--- a/DAP/composite_idicator/MSNA_2020_DAP_v2.xlsx
+++ b/DAP/composite_idicator/MSNA_2020_DAP_v2.xlsx
@@ -1,23 +1,31 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="23029"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\mh1\REACH\2020_BGD_MSNAs\DAP\composite_idicator\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F810F6A7-79BB-4DC6-AB83-C9B699024815}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="-45" windowWidth="20730" windowHeight="11700" tabRatio="675" activeTab="2"/>
+    <workbookView xWindow="-93" yWindow="-93" windowWidth="25786" windowHeight="13986" tabRatio="675" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="New aggregated fields" sheetId="11" r:id="rId1"/>
-    <sheet name="Sheet3" sheetId="15" state="hidden" r:id="rId2"/>
-    <sheet name="Basic statistics" sheetId="5" r:id="rId3"/>
-    <sheet name="Further Analysis" sheetId="8" r:id="rId4"/>
+    <sheet name="Sheet1" sheetId="16" r:id="rId2"/>
+    <sheet name="Sheet2" sheetId="17" r:id="rId3"/>
+    <sheet name="Sheet3" sheetId="15" state="hidden" r:id="rId4"/>
+    <sheet name="Basic statistics" sheetId="5" r:id="rId5"/>
+    <sheet name="Further Analysis" sheetId="8" r:id="rId6"/>
   </sheets>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="191029"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1727" uniqueCount="602">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1887" uniqueCount="683">
   <si>
     <t>Description</t>
   </si>
@@ -1879,11 +1887,254 @@
   <si>
     <t>improvement_reason.no_need_to_improve</t>
   </si>
+  <si>
+    <t>if_else( ind_ed_TLC == "yes" &amp; individual_age &gt;= 3 &amp; individual_age &lt;= 5 &amp; ind_gender == "female"</t>
+  </si>
+  <si>
+    <t>if_else( ind_ed_TLC == "yes" &amp; individual_age &gt;= 3 &amp; individual_age &lt;= 5 &amp; ind_gender == "male"</t>
+  </si>
+  <si>
+    <t>if_else( ind_ed_TLC == "yes" &amp; individual_age &gt;= 6 &amp; individual_age &lt;= 14 &amp; ind_gender == "female"</t>
+  </si>
+  <si>
+    <t>if_else( ind_ed_TLC == "yes" &amp; individual_age &gt;= 6 &amp; individual_age &lt;= 14 &amp; ind_gender == "male"</t>
+  </si>
+  <si>
+    <t>if_else( ind_ed_TLC == "yes" &amp; individual_age &gt;= 15 &amp; individual_age &lt;= 18 &amp; ind_gender == "female"</t>
+  </si>
+  <si>
+    <t>if_else( ind_ed_TLC == "yes" &amp; individual_age &gt;= 15 &amp; individual_age &lt;= 18 &amp; ind_gender == "male"</t>
+  </si>
+  <si>
+    <t>if_else( ind_ed_TLC == "yes" &amp; individual_age &gt;= 19 &amp; individual_age &lt;= 24 &amp; ind_gender == "female"</t>
+  </si>
+  <si>
+    <t>if_else( ind_ed_TLC == "yes" &amp; individual_age &gt;= 19 &amp; individual_age &lt;= 24 &amp; ind_gender == "male"</t>
+  </si>
+  <si>
+    <t>if_else( ind_ed_madrassa == "yes" &amp; individual_age &gt;= 3 &amp; individual_age &lt;= 5 &amp; ind_gender == "female"</t>
+  </si>
+  <si>
+    <t>if_else( ind_ed_madrassa == "yes" &amp; individual_age &gt;= 3 &amp; individual_age &lt;= 5 &amp; ind_gender == "male"</t>
+  </si>
+  <si>
+    <t>if_else( ind_ed_madrassa == "yes" &amp; individual_age &gt;= 6 &amp; individual_age &lt;= 14 &amp; ind_gender == "female"</t>
+  </si>
+  <si>
+    <t>if_else( ind_ed_madrassa == "yes" &amp; individual_age &gt;= 6 &amp; individual_age &lt;= 14 &amp; ind_gender == "male"</t>
+  </si>
+  <si>
+    <t>if_else( ind_ed_madrassa == "yes" &amp; individual_age &gt;= 15 &amp; individual_age &lt;= 18 &amp; ind_gender == "female"</t>
+  </si>
+  <si>
+    <t>if_else( ind_ed_madrassa == "yes" &amp; individual_age &gt;= 15 &amp; individual_age &lt;= 18 &amp; ind_gender == "male"</t>
+  </si>
+  <si>
+    <t>if_else( ind_ed_madrassa == "yes" &amp; individual_age &gt;= 19 &amp; individual_age &lt;= 24 &amp; ind_gender == "female"</t>
+  </si>
+  <si>
+    <t>if_else( ind_ed_madrassa == "yes" &amp; individual_age &gt;= 19 &amp; individual_age &lt;= 24 &amp; ind_gender == "male"</t>
+  </si>
+  <si>
+    <t>if_else( ind_ed_nonformal == "yes" &amp; individual_age &gt;= 3 &amp; individual_age &lt;= 5 &amp; ind_gender == "female"</t>
+  </si>
+  <si>
+    <t>if_else( ind_ed_nonformal == "yes" &amp; individual_age &gt;= 3 &amp; individual_age &lt;= 5 &amp; ind_gender == "male"</t>
+  </si>
+  <si>
+    <t>if_else( ind_ed_nonformal == "yes" &amp; individual_age &gt;= 6 &amp; individual_age &lt;= 14 &amp; ind_gender == "female"</t>
+  </si>
+  <si>
+    <t>if_else( ind_ed_nonformal == "yes" &amp; individual_age &gt;= 6 &amp; individual_age &lt;= 14 &amp; ind_gender == "male"</t>
+  </si>
+  <si>
+    <t>if_else( ind_ed_nonformal == "yes" &amp; individual_age &gt;= 15 &amp; individual_age &lt;= 18 &amp; ind_gender == "female"</t>
+  </si>
+  <si>
+    <t>if_else( ind_ed_nonformal == "yes" &amp; individual_age &gt;= 15 &amp; individual_age &lt;= 18 &amp; ind_gender == "male"</t>
+  </si>
+  <si>
+    <t>if_else( ind_ed_nonformal == "yes" &amp; individual_age &gt;= 19 &amp; individual_age &lt;= 24 &amp; ind_gender == "female"</t>
+  </si>
+  <si>
+    <t>if_else( ind_ed_nonformal == "yes" &amp; individual_age &gt;= 19 &amp; individual_age &lt;= 24 &amp; ind_gender == "male"</t>
+  </si>
+  <si>
+    <t>if_else( (ind_formal_learning !== "none" &amp; individual_age ==== 4 &amp; ind_gender == "female", 1, 0)</t>
+  </si>
+  <si>
+    <t>if_else( (ind_formal_learning !== "none" &amp; individual_age ==== 4 &amp; ind_gender == "male", 1, 0)</t>
+  </si>
+  <si>
+    <t>if_else( (ind_formal_learning !== "none" &amp; individual_age &gt;= 5 &amp; individual_age &lt;= 11 &amp; ind_gender == "female", 1, 0)</t>
+  </si>
+  <si>
+    <t>if_else( (ind_formal_learning !== "none" &amp; individual_age &gt;= 5 &amp; individual_age &lt;= 11 &amp; ind_gender == "male", 1, 0)</t>
+  </si>
+  <si>
+    <t>if_else( (ind_formal_learning !== "none" &amp; individual_age &gt;= 12 &amp; individual_age &lt;= 17 &amp; ind_gender == "female", 1, 0)</t>
+  </si>
+  <si>
+    <t>if_else( (ind_formal_learning !== "none" &amp; individual_age &gt;= 12 &amp; individual_age &lt;= 17 &amp; ind_gender == "male", 1, 0)</t>
+  </si>
+  <si>
+    <t>if_else( (ind_formal_learning !== "none" &amp; individual_age &gt;= 18 &amp; individual_age &lt;= 24 &amp; ind_gender == "female", 1, 0)</t>
+  </si>
+  <si>
+    <t>if_else( (ind_formal_learning !== "none" &amp; individual_age &gt;= 18 &amp; individual_age &lt;= 24 &amp; ind_gender == "male", 1, 0)</t>
+  </si>
+  <si>
+    <t>if_else( (ind_nonformal_learn !== "none" &amp; individual_age ==== 4 &amp; ind_gender == "female", 1, 0)</t>
+  </si>
+  <si>
+    <t>if_else( (ind_nonformal_learn !== "none" &amp; individual_age ==== 4 &amp; ind_gender == "male", 1, 0)</t>
+  </si>
+  <si>
+    <t>if_else( (ind_nonformal_learn !== "none" &amp; individual_age &gt;= 5 &amp; individual_age &lt;= 11 &amp; ind_gender == "female", 1, 0)</t>
+  </si>
+  <si>
+    <t>if_else( (ind_nonformal_learn !== "none" &amp; individual_age &gt;= 5 &amp; individual_age &lt;= 11 &amp; ind_gender == "male", 1, 0)</t>
+  </si>
+  <si>
+    <t>if_else( (ind_nonformal_learn !== "none" &amp; individual_age &gt;= 12 &amp; individual_age &lt;= 17 &amp; ind_gender == "female", 1, 0)</t>
+  </si>
+  <si>
+    <t>if_else( (ind_nonformal_learn !== "none" &amp; individual_age &gt;= 12 &amp; individual_age &lt;= 17 &amp; ind_gender == "male", 1, 0)</t>
+  </si>
+  <si>
+    <t>if_else( (ind_nonformal_learn !== "none" &amp; individual_age &gt;= 18 &amp; individual_age &lt;= 24 &amp; ind_gender == "female", 1, 0)</t>
+  </si>
+  <si>
+    <t>if_else( (ind_nonformal_learn !== "none" &amp; individual_age &gt;= 18 &amp; individual_age &lt;= 24 &amp; ind_gender == "male", 1, 0)</t>
+  </si>
+  <si>
+    <t>,"yes","no",NULL),</t>
+  </si>
+  <si>
+    <t>i.ind_ed_TLC_f_3_5=if_else( ind_ed_TLC == "yes" &amp; individual_age &gt;= 3 &amp; individual_age &lt;= 5 &amp; ind_gender == "female","yes","no",NULL),</t>
+  </si>
+  <si>
+    <t>i.ind_ed_TLC_m_3_5=if_else( ind_ed_TLC == "yes" &amp; individual_age &gt;= 3 &amp; individual_age &lt;= 5 &amp; ind_gender == "male","yes","no",NULL),</t>
+  </si>
+  <si>
+    <t>i.ind_ed_TLC_f_6_14=if_else( ind_ed_TLC == "yes" &amp; individual_age &gt;= 6 &amp; individual_age &lt;= 14 &amp; ind_gender == "female","yes","no",NULL),</t>
+  </si>
+  <si>
+    <t>i.ind_ed_TLC_m_6_14=if_else( ind_ed_TLC == "yes" &amp; individual_age &gt;= 6 &amp; individual_age &lt;= 14 &amp; ind_gender == "male","yes","no",NULL),</t>
+  </si>
+  <si>
+    <t>i.ind_ed_TLC_f_15_18=if_else( ind_ed_TLC == "yes" &amp; individual_age &gt;= 15 &amp; individual_age &lt;= 18 &amp; ind_gender == "female","yes","no",NULL),</t>
+  </si>
+  <si>
+    <t>i.ind_ed_TLC_m_15_18=if_else( ind_ed_TLC == "yes" &amp; individual_age &gt;= 15 &amp; individual_age &lt;= 18 &amp; ind_gender == "male","yes","no",NULL),</t>
+  </si>
+  <si>
+    <t>i.ind_ed_TLC_f_19_24=if_else( ind_ed_TLC == "yes" &amp; individual_age &gt;= 19 &amp; individual_age &lt;= 24 &amp; ind_gender == "female","yes","no",NULL),</t>
+  </si>
+  <si>
+    <t>i.ind_ed_TLC_m_19_24=if_else( ind_ed_TLC == "yes" &amp; individual_age &gt;= 19 &amp; individual_age &lt;= 24 &amp; ind_gender == "male","yes","no",NULL),</t>
+  </si>
+  <si>
+    <t>i.ind_ed_madrassa_f_3_5=if_else( ind_ed_madrassa == "yes" &amp; individual_age &gt;= 3 &amp; individual_age &lt;= 5 &amp; ind_gender == "female","yes","no",NULL),</t>
+  </si>
+  <si>
+    <t>i.ind_ed_madrassa_m_3_5=if_else( ind_ed_madrassa == "yes" &amp; individual_age &gt;= 3 &amp; individual_age &lt;= 5 &amp; ind_gender == "male","yes","no",NULL),</t>
+  </si>
+  <si>
+    <t>i.ind_ed_madrassa_f_6_14=if_else( ind_ed_madrassa == "yes" &amp; individual_age &gt;= 6 &amp; individual_age &lt;= 14 &amp; ind_gender == "female","yes","no",NULL),</t>
+  </si>
+  <si>
+    <t>i.ind_ed_madrassa_m_6_14=if_else( ind_ed_madrassa == "yes" &amp; individual_age &gt;= 6 &amp; individual_age &lt;= 14 &amp; ind_gender == "male","yes","no",NULL),</t>
+  </si>
+  <si>
+    <t>i.ind_ed_madrassa_f_15_18=if_else( ind_ed_madrassa == "yes" &amp; individual_age &gt;= 15 &amp; individual_age &lt;= 18 &amp; ind_gender == "female","yes","no",NULL),</t>
+  </si>
+  <si>
+    <t>i.ind_ed_madrassa_m_15_18=if_else( ind_ed_madrassa == "yes" &amp; individual_age &gt;= 15 &amp; individual_age &lt;= 18 &amp; ind_gender == "male","yes","no",NULL),</t>
+  </si>
+  <si>
+    <t>i.ind_ed_madrassa_f_19_24=if_else( ind_ed_madrassa == "yes" &amp; individual_age &gt;= 19 &amp; individual_age &lt;= 24 &amp; ind_gender == "female","yes","no",NULL),</t>
+  </si>
+  <si>
+    <t>i.ind_ed_madrassa_m_19_24=if_else( ind_ed_madrassa == "yes" &amp; individual_age &gt;= 19 &amp; individual_age &lt;= 24 &amp; ind_gender == "male","yes","no",NULL),</t>
+  </si>
+  <si>
+    <t>i.ind_ed_nonformal_f_3_5=if_else( ind_ed_nonformal == "yes" &amp; individual_age &gt;= 3 &amp; individual_age &lt;= 5 &amp; ind_gender == "female","yes","no",NULL),</t>
+  </si>
+  <si>
+    <t>i.ind_ed_nonformal_m_3_5=if_else( ind_ed_nonformal == "yes" &amp; individual_age &gt;= 3 &amp; individual_age &lt;= 5 &amp; ind_gender == "male","yes","no",NULL),</t>
+  </si>
+  <si>
+    <t>i.ind_ed_nonformal_f_6_14=if_else( ind_ed_nonformal == "yes" &amp; individual_age &gt;= 6 &amp; individual_age &lt;= 14 &amp; ind_gender == "female","yes","no",NULL),</t>
+  </si>
+  <si>
+    <t>i.ind_ed_nonformal_m_6_14=if_else( ind_ed_nonformal == "yes" &amp; individual_age &gt;= 6 &amp; individual_age &lt;= 14 &amp; ind_gender == "male","yes","no",NULL),</t>
+  </si>
+  <si>
+    <t>i.ind_ed_nonformal_f_15_18=if_else( ind_ed_nonformal == "yes" &amp; individual_age &gt;= 15 &amp; individual_age &lt;= 18 &amp; ind_gender == "female","yes","no",NULL),</t>
+  </si>
+  <si>
+    <t>i.ind_ed_nonformal_m_15_18=if_else( ind_ed_nonformal == "yes" &amp; individual_age &gt;= 15 &amp; individual_age &lt;= 18 &amp; ind_gender == "male","yes","no",NULL),</t>
+  </si>
+  <si>
+    <t>i.ind_ed_nonformal_f_19_24=if_else( ind_ed_nonformal == "yes" &amp; individual_age &gt;= 19 &amp; individual_age &lt;= 24 &amp; ind_gender == "female","yes","no",NULL),</t>
+  </si>
+  <si>
+    <t>i.ind_ed_nonformal_m_19_24=if_else( ind_ed_nonformal == "yes" &amp; individual_age &gt;= 19 &amp; individual_age &lt;= 24 &amp; ind_gender == "male","yes","no",NULL),</t>
+  </si>
+  <si>
+    <t>i.ind_formal_learning_f_4=if_else( (ind_formal_learning !== "none" &amp; individual_age ==== 4 &amp; ind_gender == "female", 1, 0),"yes","no",NULL),</t>
+  </si>
+  <si>
+    <t>i.ind_formal_learning_m_4=if_else( (ind_formal_learning !== "none" &amp; individual_age ==== 4 &amp; ind_gender == "male", 1, 0),"yes","no",NULL),</t>
+  </si>
+  <si>
+    <t>i.ind_formal_learning_f_5_11=if_else( (ind_formal_learning !== "none" &amp; individual_age &gt;= 5 &amp; individual_age &lt;= 11 &amp; ind_gender == "female", 1, 0),"yes","no",NULL),</t>
+  </si>
+  <si>
+    <t>i.ind_formal_learning_m_5_11=if_else( (ind_formal_learning !== "none" &amp; individual_age &gt;= 5 &amp; individual_age &lt;= 11 &amp; ind_gender == "male", 1, 0),"yes","no",NULL),</t>
+  </si>
+  <si>
+    <t>i.ind_formal_learning_f_12_17=if_else( (ind_formal_learning !== "none" &amp; individual_age &gt;= 12 &amp; individual_age &lt;= 17 &amp; ind_gender == "female", 1, 0),"yes","no",NULL),</t>
+  </si>
+  <si>
+    <t>i.ind_formal_learning_m_12_17=if_else( (ind_formal_learning !== "none" &amp; individual_age &gt;= 12 &amp; individual_age &lt;= 17 &amp; ind_gender == "male", 1, 0),"yes","no",NULL),</t>
+  </si>
+  <si>
+    <t>i.ind_formal_learning_f_18_24=if_else( (ind_formal_learning !== "none" &amp; individual_age &gt;= 18 &amp; individual_age &lt;= 24 &amp; ind_gender == "female", 1, 0),"yes","no",NULL),</t>
+  </si>
+  <si>
+    <t>i.ind_formal_learning_m_18_24=if_else( (ind_formal_learning !== "none" &amp; individual_age &gt;= 18 &amp; individual_age &lt;= 24 &amp; ind_gender == "male", 1, 0),"yes","no",NULL),</t>
+  </si>
+  <si>
+    <t>i.ind_nonformal_learn_f_4=if_else( (ind_nonformal_learn !== "none" &amp; individual_age ==== 4 &amp; ind_gender == "female", 1, 0),"yes","no",NULL),</t>
+  </si>
+  <si>
+    <t>i.ind_nonformal_learn_m_4=if_else( (ind_nonformal_learn !== "none" &amp; individual_age ==== 4 &amp; ind_gender == "male", 1, 0),"yes","no",NULL),</t>
+  </si>
+  <si>
+    <t>i.ind_nonformal_learn_f_5_11=if_else( (ind_nonformal_learn !== "none" &amp; individual_age &gt;= 5 &amp; individual_age &lt;= 11 &amp; ind_gender == "female", 1, 0),"yes","no",NULL),</t>
+  </si>
+  <si>
+    <t>i.ind_nonformal_learn_m_5_11=if_else( (ind_nonformal_learn !== "none" &amp; individual_age &gt;= 5 &amp; individual_age &lt;= 11 &amp; ind_gender == "male", 1, 0),"yes","no",NULL),</t>
+  </si>
+  <si>
+    <t>i.ind_nonformal_learn_f_12_17=if_else( (ind_nonformal_learn !== "none" &amp; individual_age &gt;= 12 &amp; individual_age &lt;= 17 &amp; ind_gender == "female", 1, 0),"yes","no",NULL),</t>
+  </si>
+  <si>
+    <t>i.ind_nonformal_learn_m_12_17=if_else( (ind_nonformal_learn !== "none" &amp; individual_age &gt;= 12 &amp; individual_age &lt;= 17 &amp; ind_gender == "male", 1, 0),"yes","no",NULL),</t>
+  </si>
+  <si>
+    <t>i.ind_nonformal_learn_f_18_24=if_else( (ind_nonformal_learn !== "none" &amp; individual_age &gt;= 18 &amp; individual_age &lt;= 24 &amp; ind_gender == "female", 1, 0),"yes","no",NULL),</t>
+  </si>
+  <si>
+    <t>i.ind_nonformal_learn_m_18_24=if_else( (ind_nonformal_learn !== "none" &amp; individual_age &gt;= 18 &amp; individual_age &lt;= 24 &amp; ind_gender == "male", 1, 0),"yes","no",NULL),</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -2281,14 +2532,14 @@
     </xf>
   </cellXfs>
   <cellStyles count="8">
-    <cellStyle name="60% - Accent3 2" xfId="7"/>
+    <cellStyle name="60% - Accent3 2" xfId="7" xr:uid="{00000000-0005-0000-0000-000000000000}"/>
     <cellStyle name="Bad" xfId="3" builtinId="27"/>
     <cellStyle name="Good" xfId="2" builtinId="26"/>
-    <cellStyle name="Neutral 2" xfId="4"/>
+    <cellStyle name="Neutral 2" xfId="4" xr:uid="{00000000-0005-0000-0000-000003000000}"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 2" xfId="1"/>
-    <cellStyle name="Normal 3" xfId="6"/>
-    <cellStyle name="Normal 4" xfId="5"/>
+    <cellStyle name="Normal 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000005000000}"/>
+    <cellStyle name="Normal 3" xfId="6" xr:uid="{00000000-0005-0000-0000-000006000000}"/>
+    <cellStyle name="Normal 4" xfId="5" xr:uid="{00000000-0005-0000-0000-000007000000}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -2301,6 +2552,9 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -2561,38 +2815,38 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <tabColor theme="8" tint="0.39997558519241921"/>
   </sheetPr>
   <dimension ref="A1:H213"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A20" sqref="A20:XFD20"/>
+      <pane ySplit="2" topLeftCell="A42" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A20" sqref="A20:C59"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9.1171875" defaultRowHeight="13" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="32.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="5.7109375" style="3" customWidth="1"/>
-    <col min="3" max="3" width="80.28515625" style="1" customWidth="1"/>
-    <col min="4" max="5" width="10.42578125" style="1" customWidth="1"/>
+    <col min="1" max="1" width="32.5859375" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="5.703125" style="3" customWidth="1"/>
+    <col min="3" max="3" width="80.29296875" style="1" customWidth="1"/>
+    <col min="4" max="5" width="10.41015625" style="1" customWidth="1"/>
     <col min="6" max="6" width="10" style="1" customWidth="1"/>
-    <col min="7" max="7" width="71.140625" style="1" customWidth="1"/>
-    <col min="8" max="9" width="9.140625" style="1"/>
-    <col min="10" max="10" width="25.5703125" style="1" customWidth="1"/>
-    <col min="11" max="16384" width="9.140625" style="1"/>
+    <col min="7" max="7" width="71.1171875" style="1" customWidth="1"/>
+    <col min="8" max="9" width="9.1171875" style="1"/>
+    <col min="10" max="10" width="25.5859375" style="1" customWidth="1"/>
+    <col min="11" max="16384" width="9.1171875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="83.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8" ht="83.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A1" s="94" t="s">
         <v>30</v>
       </c>
@@ -2603,7 +2857,7 @@
       <c r="F1" s="95"/>
       <c r="G1" s="95"/>
     </row>
-    <row r="2" spans="1:8" ht="13.9" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A2" s="2" t="s">
         <v>5</v>
       </c>
@@ -2629,7 +2883,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="3" spans="1:8" s="8" customFormat="1" ht="13.9" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A3" s="15" t="s">
         <v>31</v>
       </c>
@@ -2648,7 +2902,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="4" spans="1:8" s="8" customFormat="1" ht="13.9" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A4" s="15" t="s">
         <v>34</v>
       </c>
@@ -2667,7 +2921,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="5" spans="1:8" s="8" customFormat="1" ht="13.9" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A5" s="15" t="s">
         <v>37</v>
       </c>
@@ -2689,7 +2943,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="6" spans="1:8" s="8" customFormat="1" ht="13.9" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A6" s="15" t="s">
         <v>44</v>
       </c>
@@ -2711,7 +2965,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="7" spans="1:8" s="8" customFormat="1" ht="13.9" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A7" s="15" t="s">
         <v>41</v>
       </c>
@@ -2730,7 +2984,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="8" spans="1:8" s="31" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:8" s="31" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A8" s="31" t="s">
         <v>69</v>
       </c>
@@ -2751,7 +3005,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="9" spans="1:8" s="31" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:8" s="31" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A9" s="31" t="s">
         <v>70</v>
       </c>
@@ -2769,7 +3023,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="10" spans="1:8" s="49" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:8" s="49" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A10" s="49" t="s">
         <v>70</v>
       </c>
@@ -2787,7 +3041,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="11" spans="1:8" s="20" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:8" s="20" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A11" s="18" t="s">
         <v>51</v>
       </c>
@@ -2806,7 +3060,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="12" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A12" s="15" t="s">
         <v>58</v>
       </c>
@@ -2825,7 +3079,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="13" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A13" s="15" t="s">
         <v>74</v>
       </c>
@@ -2844,7 +3098,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="14" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A14" s="15" t="s">
         <v>56</v>
       </c>
@@ -2863,7 +3117,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="15" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A15" s="15" t="s">
         <v>483</v>
       </c>
@@ -2882,7 +3136,7 @@
         <v>468</v>
       </c>
     </row>
-    <row r="16" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A16" s="15" t="s">
         <v>487</v>
       </c>
@@ -2901,7 +3155,7 @@
         <v>491</v>
       </c>
     </row>
-    <row r="17" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A17" s="15" t="s">
         <v>484</v>
       </c>
@@ -2920,7 +3174,7 @@
         <v>469</v>
       </c>
     </row>
-    <row r="18" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A18" s="15" t="s">
         <v>76</v>
       </c>
@@ -2939,7 +3193,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="19" spans="1:8" s="31" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:8" s="31" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A19" s="31" t="s">
         <v>488</v>
       </c>
@@ -2957,7 +3211,7 @@
         <v>492</v>
       </c>
     </row>
-    <row r="20" spans="1:8" s="31" customFormat="1" ht="13.9" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:8" s="31" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A20" s="31" t="s">
         <v>95</v>
       </c>
@@ -2977,7 +3231,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="21" spans="1:8" s="31" customFormat="1" ht="13.9" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:8" s="31" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A21" s="31" t="s">
         <v>96</v>
       </c>
@@ -2994,7 +3248,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="22" spans="1:8" s="31" customFormat="1" ht="13.9" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:8" s="31" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A22" s="31" t="s">
         <v>97</v>
       </c>
@@ -3011,7 +3265,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="23" spans="1:8" s="31" customFormat="1" ht="13.9" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:8" s="31" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A23" s="31" t="s">
         <v>98</v>
       </c>
@@ -3028,7 +3282,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="24" spans="1:8" s="31" customFormat="1" ht="13.9" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:8" s="31" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A24" s="31" t="s">
         <v>99</v>
       </c>
@@ -3045,7 +3299,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="25" spans="1:8" s="31" customFormat="1" ht="13.9" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:8" s="31" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A25" s="31" t="s">
         <v>100</v>
       </c>
@@ -3062,7 +3316,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="26" spans="1:8" s="31" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:8" s="31" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A26" s="31" t="s">
         <v>101</v>
       </c>
@@ -3079,7 +3333,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="27" spans="1:8" s="31" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:8" s="31" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A27" s="31" t="s">
         <v>102</v>
       </c>
@@ -3096,7 +3350,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="28" spans="1:8" s="31" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:8" s="31" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A28" s="31" t="s">
         <v>120</v>
       </c>
@@ -3113,7 +3367,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="29" spans="1:8" s="31" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:8" s="31" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A29" s="31" t="s">
         <v>121</v>
       </c>
@@ -3130,7 +3384,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="30" spans="1:8" s="31" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:8" s="31" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A30" s="31" t="s">
         <v>122</v>
       </c>
@@ -3147,7 +3401,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="31" spans="1:8" s="31" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:8" s="31" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A31" s="31" t="s">
         <v>123</v>
       </c>
@@ -3164,7 +3418,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="32" spans="1:8" s="31" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:8" s="31" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A32" s="31" t="s">
         <v>124</v>
       </c>
@@ -3181,7 +3435,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="33" spans="1:7" s="43" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:7" s="43" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A33" s="31" t="s">
         <v>125</v>
       </c>
@@ -3200,7 +3454,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="34" spans="1:7" s="43" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:7" s="43" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A34" s="31" t="s">
         <v>126</v>
       </c>
@@ -3219,7 +3473,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="35" spans="1:7" s="43" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:7" s="43" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A35" s="31" t="s">
         <v>127</v>
       </c>
@@ -3238,7 +3492,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="36" spans="1:7" s="31" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:7" s="31" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A36" s="31" t="s">
         <v>129</v>
       </c>
@@ -3255,7 +3509,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="37" spans="1:7" s="31" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:7" s="31" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A37" s="31" t="s">
         <v>130</v>
       </c>
@@ -3272,7 +3526,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="38" spans="1:7" s="43" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:7" s="43" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A38" s="31" t="s">
         <v>131</v>
       </c>
@@ -3291,7 +3545,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="39" spans="1:7" s="43" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:7" s="43" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A39" s="31" t="s">
         <v>132</v>
       </c>
@@ -3310,7 +3564,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="40" spans="1:7" s="43" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:7" s="43" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A40" s="31" t="s">
         <v>133</v>
       </c>
@@ -3329,7 +3583,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="41" spans="1:7" s="43" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:7" s="43" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A41" s="31" t="s">
         <v>134</v>
       </c>
@@ -3348,7 +3602,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="42" spans="1:7" s="43" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:7" s="43" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A42" s="31" t="s">
         <v>135</v>
       </c>
@@ -3367,7 +3621,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="43" spans="1:7" s="43" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:7" s="43" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A43" s="31" t="s">
         <v>136</v>
       </c>
@@ -3386,7 +3640,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="44" spans="1:7" s="46" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:7" s="46" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A44" s="45" t="s">
         <v>169</v>
       </c>
@@ -3403,7 +3657,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="45" spans="1:7" s="46" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:7" s="46" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A45" s="45" t="s">
         <v>170</v>
       </c>
@@ -3420,7 +3674,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="46" spans="1:7" s="46" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:7" s="46" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A46" s="45" t="s">
         <v>171</v>
       </c>
@@ -3437,7 +3691,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="47" spans="1:7" s="46" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:7" s="46" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A47" s="45" t="s">
         <v>172</v>
       </c>
@@ -3454,7 +3708,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="48" spans="1:7" s="46" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:7" s="46" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A48" s="45" t="s">
         <v>173</v>
       </c>
@@ -3471,7 +3725,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="49" spans="1:7" s="46" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:7" s="46" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A49" s="45" t="s">
         <v>174</v>
       </c>
@@ -3489,7 +3743,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="50" spans="1:7" s="46" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:7" s="46" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A50" s="45" t="s">
         <v>175</v>
       </c>
@@ -3507,7 +3761,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="51" spans="1:7" s="46" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:7" s="46" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A51" s="45" t="s">
         <v>176</v>
       </c>
@@ -3525,7 +3779,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="52" spans="1:7" s="46" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:7" s="46" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A52" s="45" t="s">
         <v>193</v>
       </c>
@@ -3542,7 +3796,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="53" spans="1:7" s="46" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:7" s="46" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A53" s="45" t="s">
         <v>195</v>
       </c>
@@ -3559,7 +3813,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="54" spans="1:7" s="46" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:7" s="46" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A54" s="45" t="s">
         <v>197</v>
       </c>
@@ -3576,7 +3830,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="55" spans="1:7" s="46" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:7" s="46" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A55" s="45" t="s">
         <v>199</v>
       </c>
@@ -3593,7 +3847,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="56" spans="1:7" s="46" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:7" s="46" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A56" s="45" t="s">
         <v>201</v>
       </c>
@@ -3610,7 +3864,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="57" spans="1:7" s="46" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:7" s="46" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A57" s="45" t="s">
         <v>203</v>
       </c>
@@ -3628,7 +3882,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="58" spans="1:7" s="46" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:7" s="46" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A58" s="45" t="s">
         <v>205</v>
       </c>
@@ -3646,7 +3900,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="59" spans="1:7" s="46" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:7" s="46" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A59" s="45" t="s">
         <v>207</v>
       </c>
@@ -3664,7 +3918,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="60" spans="1:7" s="49" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:7" s="49" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A60" s="49" t="s">
         <v>217</v>
       </c>
@@ -3682,7 +3936,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="61" spans="1:7" s="31" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:7" s="31" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A61" s="31" t="s">
         <v>220</v>
       </c>
@@ -3700,7 +3954,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="62" spans="1:7" s="49" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:7" s="49" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A62" s="49" t="s">
         <v>220</v>
       </c>
@@ -3718,7 +3972,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="63" spans="1:7" s="31" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:7" s="31" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A63" s="31" t="s">
         <v>228</v>
       </c>
@@ -3736,7 +3990,7 @@
         <v>239</v>
       </c>
     </row>
-    <row r="64" spans="1:7" s="31" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:7" s="31" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A64" s="31" t="s">
         <v>230</v>
       </c>
@@ -3754,7 +4008,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="65" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A65" s="8" t="s">
         <v>235</v>
       </c>
@@ -3772,7 +4026,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="66" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A66" s="8" t="s">
         <v>236</v>
       </c>
@@ -3790,7 +4044,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="67" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A67" s="8" t="s">
         <v>245</v>
       </c>
@@ -3808,7 +4062,7 @@
         <v>270</v>
       </c>
     </row>
-    <row r="68" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A68" s="8" t="s">
         <v>247</v>
       </c>
@@ -3829,7 +4083,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="69" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A69" s="8" t="s">
         <v>248</v>
       </c>
@@ -3847,7 +4101,7 @@
         <v>272</v>
       </c>
     </row>
-    <row r="70" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A70" s="8" t="s">
         <v>249</v>
       </c>
@@ -3865,7 +4119,7 @@
         <v>273</v>
       </c>
     </row>
-    <row r="71" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A71" s="8" t="s">
         <v>250</v>
       </c>
@@ -3883,7 +4137,7 @@
         <v>274</v>
       </c>
     </row>
-    <row r="72" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A72" s="8" t="s">
         <v>251</v>
       </c>
@@ -3901,7 +4155,7 @@
         <v>275</v>
       </c>
     </row>
-    <row r="73" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A73" s="8" t="s">
         <v>252</v>
       </c>
@@ -3919,7 +4173,7 @@
         <v>276</v>
       </c>
     </row>
-    <row r="74" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A74" s="8" t="s">
         <v>268</v>
       </c>
@@ -3937,7 +4191,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="75" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A75" s="8" t="s">
         <v>292</v>
       </c>
@@ -3955,7 +4209,7 @@
         <v>294</v>
       </c>
     </row>
-    <row r="76" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A76" s="8" t="s">
         <v>296</v>
       </c>
@@ -3973,7 +4227,7 @@
         <v>298</v>
       </c>
     </row>
-    <row r="77" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A77" s="8" t="s">
         <v>299</v>
       </c>
@@ -3991,7 +4245,7 @@
         <v>314</v>
       </c>
     </row>
-    <row r="78" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A78" s="8" t="s">
         <v>300</v>
       </c>
@@ -4009,7 +4263,7 @@
         <v>315</v>
       </c>
     </row>
-    <row r="79" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A79" s="8" t="s">
         <v>301</v>
       </c>
@@ -4027,7 +4281,7 @@
         <v>316</v>
       </c>
     </row>
-    <row r="80" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A80" s="8" t="s">
         <v>306</v>
       </c>
@@ -4048,7 +4302,7 @@
         <v>320</v>
       </c>
     </row>
-    <row r="81" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A81" s="8" t="s">
         <v>307</v>
       </c>
@@ -4066,7 +4320,7 @@
         <v>318</v>
       </c>
     </row>
-    <row r="82" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A82" s="8" t="s">
         <v>308</v>
       </c>
@@ -4084,7 +4338,7 @@
         <v>319</v>
       </c>
     </row>
-    <row r="83" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A83" s="8" t="s">
         <v>358</v>
       </c>
@@ -4102,7 +4356,7 @@
         <v>360</v>
       </c>
     </row>
-    <row r="84" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A84" s="8" t="s">
         <v>361</v>
       </c>
@@ -4120,7 +4374,7 @@
         <v>363</v>
       </c>
     </row>
-    <row r="85" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A85" s="8" t="s">
         <v>379</v>
       </c>
@@ -4138,7 +4392,7 @@
         <v>381</v>
       </c>
     </row>
-    <row r="86" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A86" s="8" t="s">
         <v>382</v>
       </c>
@@ -4156,7 +4410,7 @@
         <v>384</v>
       </c>
     </row>
-    <row r="87" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A87" s="8" t="s">
         <v>459</v>
       </c>
@@ -4174,7 +4428,7 @@
         <v>463</v>
       </c>
     </row>
-    <row r="88" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A88" s="8" t="s">
         <v>460</v>
       </c>
@@ -4192,7 +4446,7 @@
         <v>464</v>
       </c>
     </row>
-    <row r="89" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A89" s="8" t="s">
         <v>465</v>
       </c>
@@ -4210,7 +4464,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="90" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A90" s="8" t="s">
         <v>499</v>
       </c>
@@ -4228,7 +4482,7 @@
         <v>502</v>
       </c>
     </row>
-    <row r="91" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A91" s="8" t="s">
         <v>503</v>
       </c>
@@ -4246,7 +4500,7 @@
         <v>505</v>
       </c>
     </row>
-    <row r="92" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A92" s="8" t="s">
         <v>506</v>
       </c>
@@ -4264,7 +4518,7 @@
         <v>518</v>
       </c>
     </row>
-    <row r="93" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A93" s="8" t="s">
         <v>507</v>
       </c>
@@ -4282,7 +4536,7 @@
         <v>519</v>
       </c>
     </row>
-    <row r="94" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A94" s="8" t="s">
         <v>508</v>
       </c>
@@ -4300,7 +4554,7 @@
         <v>520</v>
       </c>
     </row>
-    <row r="95" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A95" s="8" t="s">
         <v>509</v>
       </c>
@@ -4318,7 +4572,7 @@
         <v>521</v>
       </c>
     </row>
-    <row r="96" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A96" s="8" t="s">
         <v>510</v>
       </c>
@@ -4336,7 +4590,7 @@
         <v>522</v>
       </c>
     </row>
-    <row r="97" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A97" s="8" t="s">
         <v>511</v>
       </c>
@@ -4354,7 +4608,7 @@
         <v>523</v>
       </c>
     </row>
-    <row r="98" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A98" s="8" t="s">
         <v>524</v>
       </c>
@@ -4372,7 +4626,7 @@
         <v>540</v>
       </c>
     </row>
-    <row r="99" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A99" s="8" t="s">
         <v>525</v>
       </c>
@@ -4390,7 +4644,7 @@
         <v>541</v>
       </c>
     </row>
-    <row r="100" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A100" s="8" t="s">
         <v>526</v>
       </c>
@@ -4408,7 +4662,7 @@
         <v>542</v>
       </c>
     </row>
-    <row r="101" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A101" s="8" t="s">
         <v>527</v>
       </c>
@@ -4426,7 +4680,7 @@
         <v>543</v>
       </c>
     </row>
-    <row r="102" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A102" s="8" t="s">
         <v>528</v>
       </c>
@@ -4444,7 +4698,7 @@
         <v>544</v>
       </c>
     </row>
-    <row r="103" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A103" s="8" t="s">
         <v>529</v>
       </c>
@@ -4462,7 +4716,7 @@
         <v>545</v>
       </c>
     </row>
-    <row r="104" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A104" s="8" t="s">
         <v>530</v>
       </c>
@@ -4480,7 +4734,7 @@
         <v>546</v>
       </c>
     </row>
-    <row r="105" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A105" s="8" t="s">
         <v>531</v>
       </c>
@@ -4498,7 +4752,7 @@
         <v>547</v>
       </c>
     </row>
-    <row r="106" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A106" s="8" t="s">
         <v>548</v>
       </c>
@@ -4516,7 +4770,7 @@
         <v>550</v>
       </c>
     </row>
-    <row r="107" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A107" s="8" t="s">
         <v>551</v>
       </c>
@@ -4534,7 +4788,7 @@
         <v>555</v>
       </c>
     </row>
-    <row r="108" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A108" s="8" t="s">
         <v>552</v>
       </c>
@@ -4552,7 +4806,7 @@
         <v>556</v>
       </c>
     </row>
-    <row r="109" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A109" s="8" t="s">
         <v>557</v>
       </c>
@@ -4570,7 +4824,7 @@
         <v>559</v>
       </c>
     </row>
-    <row r="110" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A110" s="8" t="s">
         <v>560</v>
       </c>
@@ -4588,7 +4842,7 @@
         <v>572</v>
       </c>
     </row>
-    <row r="111" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A111" s="8" t="s">
         <v>561</v>
       </c>
@@ -4606,7 +4860,7 @@
         <v>573</v>
       </c>
     </row>
-    <row r="112" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A112" s="8" t="s">
         <v>562</v>
       </c>
@@ -4624,7 +4878,7 @@
         <v>574</v>
       </c>
     </row>
-    <row r="113" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="113" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A113" s="8" t="s">
         <v>563</v>
       </c>
@@ -4642,7 +4896,7 @@
         <v>575</v>
       </c>
     </row>
-    <row r="114" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="114" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A114" s="8" t="s">
         <v>564</v>
       </c>
@@ -4660,7 +4914,7 @@
         <v>576</v>
       </c>
     </row>
-    <row r="115" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="115" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A115" s="8" t="s">
         <v>565</v>
       </c>
@@ -4678,7 +4932,7 @@
         <v>577</v>
       </c>
     </row>
-    <row r="116" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="116" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A116" s="8" t="s">
         <v>578</v>
       </c>
@@ -4696,7 +4950,7 @@
         <v>580</v>
       </c>
     </row>
-    <row r="117" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="117" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A117" s="8" t="s">
         <v>584</v>
       </c>
@@ -4714,7 +4968,7 @@
         <v>587</v>
       </c>
     </row>
-    <row r="118" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="118" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A118" s="8" t="s">
         <v>585</v>
       </c>
@@ -4732,7 +4986,7 @@
         <v>588</v>
       </c>
     </row>
-    <row r="119" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="119" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A119" s="8" t="s">
         <v>552</v>
       </c>
@@ -4750,7 +5004,7 @@
         <v>556</v>
       </c>
     </row>
-    <row r="120" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="120" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A120" s="8" t="s">
         <v>596</v>
       </c>
@@ -4768,7 +5022,7 @@
         <v>591</v>
       </c>
     </row>
-    <row r="121" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="121" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A121" s="8" t="s">
         <v>597</v>
       </c>
@@ -4786,7 +5040,7 @@
         <v>592</v>
       </c>
     </row>
-    <row r="122" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="122" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A122" s="8" t="s">
         <v>595</v>
       </c>
@@ -4804,277 +5058,277 @@
         <v>599</v>
       </c>
     </row>
-    <row r="123" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="123" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.45">
       <c r="B123" s="14"/>
     </row>
-    <row r="124" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="124" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.45">
       <c r="B124" s="14"/>
     </row>
-    <row r="125" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="125" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.45">
       <c r="B125" s="14"/>
     </row>
-    <row r="126" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="126" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.45">
       <c r="B126" s="14"/>
     </row>
-    <row r="127" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="127" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.45">
       <c r="B127" s="14"/>
     </row>
-    <row r="128" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="128" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.45">
       <c r="B128" s="14"/>
     </row>
-    <row r="129" spans="2:2" s="8" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="129" spans="2:2" s="8" customFormat="1" x14ac:dyDescent="0.45">
       <c r="B129" s="14"/>
     </row>
-    <row r="130" spans="2:2" s="8" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="130" spans="2:2" s="8" customFormat="1" x14ac:dyDescent="0.45">
       <c r="B130" s="14"/>
     </row>
-    <row r="131" spans="2:2" s="8" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="131" spans="2:2" s="8" customFormat="1" x14ac:dyDescent="0.45">
       <c r="B131" s="14"/>
     </row>
-    <row r="132" spans="2:2" s="8" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="132" spans="2:2" s="8" customFormat="1" x14ac:dyDescent="0.45">
       <c r="B132" s="14"/>
     </row>
-    <row r="133" spans="2:2" s="8" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="133" spans="2:2" s="8" customFormat="1" x14ac:dyDescent="0.45">
       <c r="B133" s="14"/>
     </row>
-    <row r="134" spans="2:2" s="8" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="134" spans="2:2" s="8" customFormat="1" x14ac:dyDescent="0.45">
       <c r="B134" s="14"/>
     </row>
-    <row r="135" spans="2:2" s="8" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="135" spans="2:2" s="8" customFormat="1" x14ac:dyDescent="0.45">
       <c r="B135" s="14"/>
     </row>
-    <row r="136" spans="2:2" s="8" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="136" spans="2:2" s="8" customFormat="1" x14ac:dyDescent="0.45">
       <c r="B136" s="14"/>
     </row>
-    <row r="137" spans="2:2" s="8" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="137" spans="2:2" s="8" customFormat="1" x14ac:dyDescent="0.45">
       <c r="B137" s="14"/>
     </row>
-    <row r="138" spans="2:2" s="8" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="138" spans="2:2" s="8" customFormat="1" x14ac:dyDescent="0.45">
       <c r="B138" s="14"/>
     </row>
-    <row r="139" spans="2:2" s="8" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="139" spans="2:2" s="8" customFormat="1" x14ac:dyDescent="0.45">
       <c r="B139" s="14"/>
     </row>
-    <row r="140" spans="2:2" s="8" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="140" spans="2:2" s="8" customFormat="1" x14ac:dyDescent="0.45">
       <c r="B140" s="14"/>
     </row>
-    <row r="141" spans="2:2" s="8" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="141" spans="2:2" s="8" customFormat="1" x14ac:dyDescent="0.45">
       <c r="B141" s="14"/>
     </row>
-    <row r="142" spans="2:2" s="8" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="142" spans="2:2" s="8" customFormat="1" x14ac:dyDescent="0.45">
       <c r="B142" s="14"/>
     </row>
-    <row r="143" spans="2:2" s="8" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="143" spans="2:2" s="8" customFormat="1" x14ac:dyDescent="0.45">
       <c r="B143" s="14"/>
     </row>
-    <row r="144" spans="2:2" s="8" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="144" spans="2:2" s="8" customFormat="1" x14ac:dyDescent="0.45">
       <c r="B144" s="14"/>
     </row>
-    <row r="145" spans="2:2" s="8" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="145" spans="2:2" s="8" customFormat="1" x14ac:dyDescent="0.45">
       <c r="B145" s="14"/>
     </row>
-    <row r="146" spans="2:2" s="8" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="146" spans="2:2" s="8" customFormat="1" x14ac:dyDescent="0.45">
       <c r="B146" s="14"/>
     </row>
-    <row r="147" spans="2:2" s="8" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="147" spans="2:2" s="8" customFormat="1" x14ac:dyDescent="0.45">
       <c r="B147" s="14"/>
     </row>
-    <row r="148" spans="2:2" s="8" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="148" spans="2:2" s="8" customFormat="1" x14ac:dyDescent="0.45">
       <c r="B148" s="14"/>
     </row>
-    <row r="149" spans="2:2" s="8" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="149" spans="2:2" s="8" customFormat="1" x14ac:dyDescent="0.45">
       <c r="B149" s="14"/>
     </row>
-    <row r="150" spans="2:2" s="8" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="150" spans="2:2" s="8" customFormat="1" x14ac:dyDescent="0.45">
       <c r="B150" s="14"/>
     </row>
-    <row r="151" spans="2:2" s="8" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="151" spans="2:2" s="8" customFormat="1" x14ac:dyDescent="0.45">
       <c r="B151" s="14"/>
     </row>
-    <row r="152" spans="2:2" s="8" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="152" spans="2:2" s="8" customFormat="1" x14ac:dyDescent="0.45">
       <c r="B152" s="14"/>
     </row>
-    <row r="153" spans="2:2" s="8" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="153" spans="2:2" s="8" customFormat="1" x14ac:dyDescent="0.45">
       <c r="B153" s="14"/>
     </row>
-    <row r="154" spans="2:2" s="8" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="154" spans="2:2" s="8" customFormat="1" x14ac:dyDescent="0.45">
       <c r="B154" s="14"/>
     </row>
-    <row r="155" spans="2:2" s="8" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="155" spans="2:2" s="8" customFormat="1" x14ac:dyDescent="0.45">
       <c r="B155" s="14"/>
     </row>
-    <row r="156" spans="2:2" s="8" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="156" spans="2:2" s="8" customFormat="1" x14ac:dyDescent="0.45">
       <c r="B156" s="14"/>
     </row>
-    <row r="157" spans="2:2" s="8" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="157" spans="2:2" s="8" customFormat="1" x14ac:dyDescent="0.45">
       <c r="B157" s="14"/>
     </row>
-    <row r="158" spans="2:2" s="8" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="158" spans="2:2" s="8" customFormat="1" x14ac:dyDescent="0.45">
       <c r="B158" s="14"/>
     </row>
-    <row r="159" spans="2:2" s="8" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="159" spans="2:2" s="8" customFormat="1" x14ac:dyDescent="0.45">
       <c r="B159" s="14"/>
     </row>
-    <row r="160" spans="2:2" s="8" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="160" spans="2:2" s="8" customFormat="1" x14ac:dyDescent="0.45">
       <c r="B160" s="14"/>
     </row>
-    <row r="161" spans="2:2" s="8" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="161" spans="2:2" s="8" customFormat="1" x14ac:dyDescent="0.45">
       <c r="B161" s="14"/>
     </row>
-    <row r="162" spans="2:2" s="8" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="162" spans="2:2" s="8" customFormat="1" x14ac:dyDescent="0.45">
       <c r="B162" s="14"/>
     </row>
-    <row r="163" spans="2:2" s="8" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="163" spans="2:2" s="8" customFormat="1" x14ac:dyDescent="0.45">
       <c r="B163" s="14"/>
     </row>
-    <row r="164" spans="2:2" s="8" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="164" spans="2:2" s="8" customFormat="1" x14ac:dyDescent="0.45">
       <c r="B164" s="14"/>
     </row>
-    <row r="165" spans="2:2" s="8" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="165" spans="2:2" s="8" customFormat="1" x14ac:dyDescent="0.45">
       <c r="B165" s="14"/>
     </row>
-    <row r="166" spans="2:2" s="8" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="166" spans="2:2" s="8" customFormat="1" x14ac:dyDescent="0.45">
       <c r="B166" s="14"/>
     </row>
-    <row r="167" spans="2:2" s="8" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="167" spans="2:2" s="8" customFormat="1" x14ac:dyDescent="0.45">
       <c r="B167" s="14"/>
     </row>
-    <row r="168" spans="2:2" s="8" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="168" spans="2:2" s="8" customFormat="1" x14ac:dyDescent="0.45">
       <c r="B168" s="14"/>
     </row>
-    <row r="169" spans="2:2" s="8" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="169" spans="2:2" s="8" customFormat="1" x14ac:dyDescent="0.45">
       <c r="B169" s="14"/>
     </row>
-    <row r="170" spans="2:2" s="8" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="170" spans="2:2" s="8" customFormat="1" x14ac:dyDescent="0.45">
       <c r="B170" s="14"/>
     </row>
-    <row r="171" spans="2:2" s="8" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="171" spans="2:2" s="8" customFormat="1" x14ac:dyDescent="0.45">
       <c r="B171" s="14"/>
     </row>
-    <row r="172" spans="2:2" s="8" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="172" spans="2:2" s="8" customFormat="1" x14ac:dyDescent="0.45">
       <c r="B172" s="14"/>
     </row>
-    <row r="173" spans="2:2" s="8" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="173" spans="2:2" s="8" customFormat="1" x14ac:dyDescent="0.45">
       <c r="B173" s="14"/>
     </row>
-    <row r="174" spans="2:2" s="8" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="174" spans="2:2" s="8" customFormat="1" x14ac:dyDescent="0.45">
       <c r="B174" s="14"/>
     </row>
-    <row r="175" spans="2:2" s="8" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="175" spans="2:2" s="8" customFormat="1" x14ac:dyDescent="0.45">
       <c r="B175" s="14"/>
     </row>
-    <row r="176" spans="2:2" s="8" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="176" spans="2:2" s="8" customFormat="1" x14ac:dyDescent="0.45">
       <c r="B176" s="14"/>
     </row>
-    <row r="177" spans="2:2" s="8" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="177" spans="2:2" s="8" customFormat="1" x14ac:dyDescent="0.45">
       <c r="B177" s="14"/>
     </row>
-    <row r="178" spans="2:2" s="8" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="178" spans="2:2" s="8" customFormat="1" x14ac:dyDescent="0.45">
       <c r="B178" s="14"/>
     </row>
-    <row r="179" spans="2:2" s="8" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="179" spans="2:2" s="8" customFormat="1" x14ac:dyDescent="0.45">
       <c r="B179" s="14"/>
     </row>
-    <row r="180" spans="2:2" s="8" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="180" spans="2:2" s="8" customFormat="1" x14ac:dyDescent="0.45">
       <c r="B180" s="14"/>
     </row>
-    <row r="181" spans="2:2" s="8" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="181" spans="2:2" s="8" customFormat="1" x14ac:dyDescent="0.45">
       <c r="B181" s="14"/>
     </row>
-    <row r="182" spans="2:2" s="8" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="182" spans="2:2" s="8" customFormat="1" x14ac:dyDescent="0.45">
       <c r="B182" s="14"/>
     </row>
-    <row r="183" spans="2:2" s="8" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="183" spans="2:2" s="8" customFormat="1" x14ac:dyDescent="0.45">
       <c r="B183" s="14"/>
     </row>
-    <row r="184" spans="2:2" s="8" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="184" spans="2:2" s="8" customFormat="1" x14ac:dyDescent="0.45">
       <c r="B184" s="14"/>
     </row>
-    <row r="185" spans="2:2" s="8" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="185" spans="2:2" s="8" customFormat="1" x14ac:dyDescent="0.45">
       <c r="B185" s="14"/>
     </row>
-    <row r="186" spans="2:2" s="8" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="186" spans="2:2" s="8" customFormat="1" x14ac:dyDescent="0.45">
       <c r="B186" s="14"/>
     </row>
-    <row r="187" spans="2:2" s="8" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="187" spans="2:2" s="8" customFormat="1" x14ac:dyDescent="0.45">
       <c r="B187" s="14"/>
     </row>
-    <row r="188" spans="2:2" s="8" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="188" spans="2:2" s="8" customFormat="1" x14ac:dyDescent="0.45">
       <c r="B188" s="14"/>
     </row>
-    <row r="189" spans="2:2" s="8" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="189" spans="2:2" s="8" customFormat="1" x14ac:dyDescent="0.45">
       <c r="B189" s="14"/>
     </row>
-    <row r="190" spans="2:2" s="8" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="190" spans="2:2" s="8" customFormat="1" x14ac:dyDescent="0.45">
       <c r="B190" s="14"/>
     </row>
-    <row r="191" spans="2:2" s="8" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="191" spans="2:2" s="8" customFormat="1" x14ac:dyDescent="0.45">
       <c r="B191" s="14"/>
     </row>
-    <row r="192" spans="2:2" s="8" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="192" spans="2:2" s="8" customFormat="1" x14ac:dyDescent="0.45">
       <c r="B192" s="14"/>
     </row>
-    <row r="193" spans="2:2" s="8" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="193" spans="2:2" s="8" customFormat="1" x14ac:dyDescent="0.45">
       <c r="B193" s="14"/>
     </row>
-    <row r="194" spans="2:2" s="8" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="194" spans="2:2" s="8" customFormat="1" x14ac:dyDescent="0.45">
       <c r="B194" s="14"/>
     </row>
-    <row r="195" spans="2:2" s="8" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="195" spans="2:2" s="8" customFormat="1" x14ac:dyDescent="0.45">
       <c r="B195" s="14"/>
     </row>
-    <row r="196" spans="2:2" s="8" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="196" spans="2:2" s="8" customFormat="1" x14ac:dyDescent="0.45">
       <c r="B196" s="14"/>
     </row>
-    <row r="197" spans="2:2" s="8" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="197" spans="2:2" s="8" customFormat="1" x14ac:dyDescent="0.45">
       <c r="B197" s="14"/>
     </row>
-    <row r="198" spans="2:2" s="8" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="198" spans="2:2" s="8" customFormat="1" x14ac:dyDescent="0.45">
       <c r="B198" s="14"/>
     </row>
-    <row r="199" spans="2:2" s="8" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="199" spans="2:2" s="8" customFormat="1" x14ac:dyDescent="0.45">
       <c r="B199" s="14"/>
     </row>
-    <row r="200" spans="2:2" s="8" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="200" spans="2:2" s="8" customFormat="1" x14ac:dyDescent="0.45">
       <c r="B200" s="14"/>
     </row>
-    <row r="201" spans="2:2" s="8" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="201" spans="2:2" s="8" customFormat="1" x14ac:dyDescent="0.45">
       <c r="B201" s="14"/>
     </row>
-    <row r="202" spans="2:2" s="8" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="202" spans="2:2" s="8" customFormat="1" x14ac:dyDescent="0.45">
       <c r="B202" s="14"/>
     </row>
-    <row r="203" spans="2:2" s="8" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="203" spans="2:2" s="8" customFormat="1" x14ac:dyDescent="0.45">
       <c r="B203" s="14"/>
     </row>
-    <row r="204" spans="2:2" s="8" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="204" spans="2:2" s="8" customFormat="1" x14ac:dyDescent="0.45">
       <c r="B204" s="14"/>
     </row>
-    <row r="205" spans="2:2" s="8" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="205" spans="2:2" s="8" customFormat="1" x14ac:dyDescent="0.45">
       <c r="B205" s="14"/>
     </row>
-    <row r="206" spans="2:2" s="8" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="206" spans="2:2" s="8" customFormat="1" x14ac:dyDescent="0.45">
       <c r="B206" s="14"/>
     </row>
-    <row r="207" spans="2:2" s="8" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="207" spans="2:2" s="8" customFormat="1" x14ac:dyDescent="0.45">
       <c r="B207" s="14"/>
     </row>
-    <row r="208" spans="2:2" s="8" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="208" spans="2:2" s="8" customFormat="1" x14ac:dyDescent="0.45">
       <c r="B208" s="14"/>
     </row>
-    <row r="209" spans="2:2" s="8" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="209" spans="2:2" s="8" customFormat="1" x14ac:dyDescent="0.45">
       <c r="B209" s="14"/>
     </row>
-    <row r="210" spans="2:2" s="8" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="210" spans="2:2" s="8" customFormat="1" x14ac:dyDescent="0.45">
       <c r="B210" s="14"/>
     </row>
-    <row r="211" spans="2:2" s="8" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="211" spans="2:2" s="8" customFormat="1" x14ac:dyDescent="0.45">
       <c r="B211" s="14"/>
     </row>
-    <row r="212" spans="2:2" s="8" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="212" spans="2:2" s="8" customFormat="1" x14ac:dyDescent="0.45">
       <c r="B212" s="14"/>
     </row>
-    <row r="213" spans="2:2" s="8" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="213" spans="2:2" s="8" customFormat="1" x14ac:dyDescent="0.45">
       <c r="B213" s="14"/>
     </row>
   </sheetData>
@@ -5088,45 +5342,886 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{385BF362-BC25-41EF-84CF-FA16CD75C43D}">
+  <sheetPr>
+    <tabColor theme="8" tint="0.39997558519241921"/>
+  </sheetPr>
+  <dimension ref="A1:D40"/>
+  <sheetViews>
+    <sheetView topLeftCell="A18" workbookViewId="0">
+      <selection activeCell="B32" sqref="B32"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.35" x14ac:dyDescent="0.5"/>
+  <cols>
+    <col min="2" max="2" width="78.52734375" customWidth="1"/>
+    <col min="3" max="3" width="15.05859375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" s="72" customFormat="1" x14ac:dyDescent="0.5">
+      <c r="A1" s="31" t="s">
+        <v>95</v>
+      </c>
+      <c r="B1" s="42" t="s">
+        <v>602</v>
+      </c>
+      <c r="C1" s="72" t="s">
+        <v>642</v>
+      </c>
+      <c r="D1" s="72" t="str">
+        <f>A1&amp;"="&amp;B1&amp;C1</f>
+        <v>i.ind_ed_TLC_f_3_5=if_else( ind_ed_TLC == "yes" &amp; individual_age &gt;= 3 &amp; individual_age &lt;= 5 &amp; ind_gender == "female","yes","no",NULL),</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" s="72" customFormat="1" x14ac:dyDescent="0.5">
+      <c r="A2" s="31" t="s">
+        <v>96</v>
+      </c>
+      <c r="B2" s="42" t="s">
+        <v>603</v>
+      </c>
+      <c r="C2" s="72" t="s">
+        <v>642</v>
+      </c>
+      <c r="D2" s="72" t="str">
+        <f t="shared" ref="D2:D40" si="0">A2&amp;"="&amp;B2&amp;C2</f>
+        <v>i.ind_ed_TLC_m_3_5=if_else( ind_ed_TLC == "yes" &amp; individual_age &gt;= 3 &amp; individual_age &lt;= 5 &amp; ind_gender == "male","yes","no",NULL),</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" s="72" customFormat="1" x14ac:dyDescent="0.5">
+      <c r="A3" s="31" t="s">
+        <v>97</v>
+      </c>
+      <c r="B3" s="42" t="s">
+        <v>604</v>
+      </c>
+      <c r="C3" s="72" t="s">
+        <v>642</v>
+      </c>
+      <c r="D3" s="72" t="str">
+        <f t="shared" si="0"/>
+        <v>i.ind_ed_TLC_f_6_14=if_else( ind_ed_TLC == "yes" &amp; individual_age &gt;= 6 &amp; individual_age &lt;= 14 &amp; ind_gender == "female","yes","no",NULL),</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" s="72" customFormat="1" x14ac:dyDescent="0.5">
+      <c r="A4" s="31" t="s">
+        <v>98</v>
+      </c>
+      <c r="B4" s="42" t="s">
+        <v>605</v>
+      </c>
+      <c r="C4" s="72" t="s">
+        <v>642</v>
+      </c>
+      <c r="D4" s="72" t="str">
+        <f t="shared" si="0"/>
+        <v>i.ind_ed_TLC_m_6_14=if_else( ind_ed_TLC == "yes" &amp; individual_age &gt;= 6 &amp; individual_age &lt;= 14 &amp; ind_gender == "male","yes","no",NULL),</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" s="72" customFormat="1" x14ac:dyDescent="0.5">
+      <c r="A5" s="31" t="s">
+        <v>99</v>
+      </c>
+      <c r="B5" s="42" t="s">
+        <v>606</v>
+      </c>
+      <c r="C5" s="72" t="s">
+        <v>642</v>
+      </c>
+      <c r="D5" s="72" t="str">
+        <f t="shared" si="0"/>
+        <v>i.ind_ed_TLC_f_15_18=if_else( ind_ed_TLC == "yes" &amp; individual_age &gt;= 15 &amp; individual_age &lt;= 18 &amp; ind_gender == "female","yes","no",NULL),</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" s="72" customFormat="1" x14ac:dyDescent="0.5">
+      <c r="A6" s="31" t="s">
+        <v>100</v>
+      </c>
+      <c r="B6" s="42" t="s">
+        <v>607</v>
+      </c>
+      <c r="C6" s="72" t="s">
+        <v>642</v>
+      </c>
+      <c r="D6" s="72" t="str">
+        <f t="shared" si="0"/>
+        <v>i.ind_ed_TLC_m_15_18=if_else( ind_ed_TLC == "yes" &amp; individual_age &gt;= 15 &amp; individual_age &lt;= 18 &amp; ind_gender == "male","yes","no",NULL),</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" s="72" customFormat="1" x14ac:dyDescent="0.5">
+      <c r="A7" s="31" t="s">
+        <v>101</v>
+      </c>
+      <c r="B7" s="42" t="s">
+        <v>608</v>
+      </c>
+      <c r="C7" s="72" t="s">
+        <v>642</v>
+      </c>
+      <c r="D7" s="72" t="str">
+        <f t="shared" si="0"/>
+        <v>i.ind_ed_TLC_f_19_24=if_else( ind_ed_TLC == "yes" &amp; individual_age &gt;= 19 &amp; individual_age &lt;= 24 &amp; ind_gender == "female","yes","no",NULL),</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" s="72" customFormat="1" x14ac:dyDescent="0.5">
+      <c r="A8" s="31" t="s">
+        <v>102</v>
+      </c>
+      <c r="B8" s="42" t="s">
+        <v>609</v>
+      </c>
+      <c r="C8" s="72" t="s">
+        <v>642</v>
+      </c>
+      <c r="D8" s="72" t="str">
+        <f t="shared" si="0"/>
+        <v>i.ind_ed_TLC_m_19_24=if_else( ind_ed_TLC == "yes" &amp; individual_age &gt;= 19 &amp; individual_age &lt;= 24 &amp; ind_gender == "male","yes","no",NULL),</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" s="72" customFormat="1" x14ac:dyDescent="0.5">
+      <c r="A9" s="31" t="s">
+        <v>120</v>
+      </c>
+      <c r="B9" s="42" t="s">
+        <v>610</v>
+      </c>
+      <c r="C9" s="72" t="s">
+        <v>642</v>
+      </c>
+      <c r="D9" s="72" t="str">
+        <f t="shared" si="0"/>
+        <v>i.ind_ed_madrassa_f_3_5=if_else( ind_ed_madrassa == "yes" &amp; individual_age &gt;= 3 &amp; individual_age &lt;= 5 &amp; ind_gender == "female","yes","no",NULL),</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" s="72" customFormat="1" x14ac:dyDescent="0.5">
+      <c r="A10" s="31" t="s">
+        <v>121</v>
+      </c>
+      <c r="B10" s="42" t="s">
+        <v>611</v>
+      </c>
+      <c r="C10" s="72" t="s">
+        <v>642</v>
+      </c>
+      <c r="D10" s="72" t="str">
+        <f t="shared" si="0"/>
+        <v>i.ind_ed_madrassa_m_3_5=if_else( ind_ed_madrassa == "yes" &amp; individual_age &gt;= 3 &amp; individual_age &lt;= 5 &amp; ind_gender == "male","yes","no",NULL),</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" s="72" customFormat="1" x14ac:dyDescent="0.5">
+      <c r="A11" s="31" t="s">
+        <v>122</v>
+      </c>
+      <c r="B11" s="42" t="s">
+        <v>612</v>
+      </c>
+      <c r="C11" s="72" t="s">
+        <v>642</v>
+      </c>
+      <c r="D11" s="72" t="str">
+        <f t="shared" si="0"/>
+        <v>i.ind_ed_madrassa_f_6_14=if_else( ind_ed_madrassa == "yes" &amp; individual_age &gt;= 6 &amp; individual_age &lt;= 14 &amp; ind_gender == "female","yes","no",NULL),</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" s="72" customFormat="1" x14ac:dyDescent="0.5">
+      <c r="A12" s="31" t="s">
+        <v>123</v>
+      </c>
+      <c r="B12" s="42" t="s">
+        <v>613</v>
+      </c>
+      <c r="C12" s="72" t="s">
+        <v>642</v>
+      </c>
+      <c r="D12" s="72" t="str">
+        <f t="shared" si="0"/>
+        <v>i.ind_ed_madrassa_m_6_14=if_else( ind_ed_madrassa == "yes" &amp; individual_age &gt;= 6 &amp; individual_age &lt;= 14 &amp; ind_gender == "male","yes","no",NULL),</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" s="72" customFormat="1" x14ac:dyDescent="0.5">
+      <c r="A13" s="31" t="s">
+        <v>124</v>
+      </c>
+      <c r="B13" s="42" t="s">
+        <v>614</v>
+      </c>
+      <c r="C13" s="72" t="s">
+        <v>642</v>
+      </c>
+      <c r="D13" s="72" t="str">
+        <f t="shared" si="0"/>
+        <v>i.ind_ed_madrassa_f_15_18=if_else( ind_ed_madrassa == "yes" &amp; individual_age &gt;= 15 &amp; individual_age &lt;= 18 &amp; ind_gender == "female","yes","no",NULL),</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" s="72" customFormat="1" x14ac:dyDescent="0.5">
+      <c r="A14" s="31" t="s">
+        <v>125</v>
+      </c>
+      <c r="B14" s="42" t="s">
+        <v>615</v>
+      </c>
+      <c r="C14" s="72" t="s">
+        <v>642</v>
+      </c>
+      <c r="D14" s="72" t="str">
+        <f t="shared" si="0"/>
+        <v>i.ind_ed_madrassa_m_15_18=if_else( ind_ed_madrassa == "yes" &amp; individual_age &gt;= 15 &amp; individual_age &lt;= 18 &amp; ind_gender == "male","yes","no",NULL),</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" s="72" customFormat="1" x14ac:dyDescent="0.5">
+      <c r="A15" s="31" t="s">
+        <v>126</v>
+      </c>
+      <c r="B15" s="42" t="s">
+        <v>616</v>
+      </c>
+      <c r="C15" s="72" t="s">
+        <v>642</v>
+      </c>
+      <c r="D15" s="72" t="str">
+        <f t="shared" si="0"/>
+        <v>i.ind_ed_madrassa_f_19_24=if_else( ind_ed_madrassa == "yes" &amp; individual_age &gt;= 19 &amp; individual_age &lt;= 24 &amp; ind_gender == "female","yes","no",NULL),</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" s="72" customFormat="1" x14ac:dyDescent="0.5">
+      <c r="A16" s="31" t="s">
+        <v>127</v>
+      </c>
+      <c r="B16" s="42" t="s">
+        <v>617</v>
+      </c>
+      <c r="C16" s="72" t="s">
+        <v>642</v>
+      </c>
+      <c r="D16" s="72" t="str">
+        <f t="shared" si="0"/>
+        <v>i.ind_ed_madrassa_m_19_24=if_else( ind_ed_madrassa == "yes" &amp; individual_age &gt;= 19 &amp; individual_age &lt;= 24 &amp; ind_gender == "male","yes","no",NULL),</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" s="72" customFormat="1" x14ac:dyDescent="0.5">
+      <c r="A17" s="31" t="s">
+        <v>129</v>
+      </c>
+      <c r="B17" s="42" t="s">
+        <v>618</v>
+      </c>
+      <c r="C17" s="72" t="s">
+        <v>642</v>
+      </c>
+      <c r="D17" s="72" t="str">
+        <f t="shared" si="0"/>
+        <v>i.ind_ed_nonformal_f_3_5=if_else( ind_ed_nonformal == "yes" &amp; individual_age &gt;= 3 &amp; individual_age &lt;= 5 &amp; ind_gender == "female","yes","no",NULL),</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" s="72" customFormat="1" x14ac:dyDescent="0.5">
+      <c r="A18" s="31" t="s">
+        <v>130</v>
+      </c>
+      <c r="B18" s="42" t="s">
+        <v>619</v>
+      </c>
+      <c r="C18" s="72" t="s">
+        <v>642</v>
+      </c>
+      <c r="D18" s="72" t="str">
+        <f t="shared" si="0"/>
+        <v>i.ind_ed_nonformal_m_3_5=if_else( ind_ed_nonformal == "yes" &amp; individual_age &gt;= 3 &amp; individual_age &lt;= 5 &amp; ind_gender == "male","yes","no",NULL),</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" s="72" customFormat="1" x14ac:dyDescent="0.5">
+      <c r="A19" s="31" t="s">
+        <v>131</v>
+      </c>
+      <c r="B19" s="42" t="s">
+        <v>620</v>
+      </c>
+      <c r="C19" s="72" t="s">
+        <v>642</v>
+      </c>
+      <c r="D19" s="72" t="str">
+        <f t="shared" si="0"/>
+        <v>i.ind_ed_nonformal_f_6_14=if_else( ind_ed_nonformal == "yes" &amp; individual_age &gt;= 6 &amp; individual_age &lt;= 14 &amp; ind_gender == "female","yes","no",NULL),</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" s="72" customFormat="1" x14ac:dyDescent="0.5">
+      <c r="A20" s="31" t="s">
+        <v>132</v>
+      </c>
+      <c r="B20" s="42" t="s">
+        <v>621</v>
+      </c>
+      <c r="C20" s="72" t="s">
+        <v>642</v>
+      </c>
+      <c r="D20" s="72" t="str">
+        <f t="shared" si="0"/>
+        <v>i.ind_ed_nonformal_m_6_14=if_else( ind_ed_nonformal == "yes" &amp; individual_age &gt;= 6 &amp; individual_age &lt;= 14 &amp; ind_gender == "male","yes","no",NULL),</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" s="72" customFormat="1" x14ac:dyDescent="0.5">
+      <c r="A21" s="31" t="s">
+        <v>133</v>
+      </c>
+      <c r="B21" s="42" t="s">
+        <v>622</v>
+      </c>
+      <c r="C21" s="72" t="s">
+        <v>642</v>
+      </c>
+      <c r="D21" s="72" t="str">
+        <f t="shared" si="0"/>
+        <v>i.ind_ed_nonformal_f_15_18=if_else( ind_ed_nonformal == "yes" &amp; individual_age &gt;= 15 &amp; individual_age &lt;= 18 &amp; ind_gender == "female","yes","no",NULL),</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" s="72" customFormat="1" x14ac:dyDescent="0.5">
+      <c r="A22" s="31" t="s">
+        <v>134</v>
+      </c>
+      <c r="B22" s="42" t="s">
+        <v>623</v>
+      </c>
+      <c r="C22" s="72" t="s">
+        <v>642</v>
+      </c>
+      <c r="D22" s="72" t="str">
+        <f t="shared" si="0"/>
+        <v>i.ind_ed_nonformal_m_15_18=if_else( ind_ed_nonformal == "yes" &amp; individual_age &gt;= 15 &amp; individual_age &lt;= 18 &amp; ind_gender == "male","yes","no",NULL),</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" s="72" customFormat="1" x14ac:dyDescent="0.5">
+      <c r="A23" s="31" t="s">
+        <v>135</v>
+      </c>
+      <c r="B23" s="42" t="s">
+        <v>624</v>
+      </c>
+      <c r="C23" s="72" t="s">
+        <v>642</v>
+      </c>
+      <c r="D23" s="72" t="str">
+        <f t="shared" si="0"/>
+        <v>i.ind_ed_nonformal_f_19_24=if_else( ind_ed_nonformal == "yes" &amp; individual_age &gt;= 19 &amp; individual_age &lt;= 24 &amp; ind_gender == "female","yes","no",NULL),</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" s="72" customFormat="1" x14ac:dyDescent="0.5">
+      <c r="A24" s="31" t="s">
+        <v>136</v>
+      </c>
+      <c r="B24" s="42" t="s">
+        <v>625</v>
+      </c>
+      <c r="C24" s="72" t="s">
+        <v>642</v>
+      </c>
+      <c r="D24" s="72" t="str">
+        <f t="shared" si="0"/>
+        <v>i.ind_ed_nonformal_m_19_24=if_else( ind_ed_nonformal == "yes" &amp; individual_age &gt;= 19 &amp; individual_age &lt;= 24 &amp; ind_gender == "male","yes","no",NULL),</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.5">
+      <c r="A25" s="45" t="s">
+        <v>169</v>
+      </c>
+      <c r="B25" s="46" t="s">
+        <v>626</v>
+      </c>
+      <c r="C25" t="s">
+        <v>642</v>
+      </c>
+      <c r="D25" t="str">
+        <f t="shared" si="0"/>
+        <v>i.ind_formal_learning_f_4=if_else( (ind_formal_learning !== "none" &amp; individual_age ==== 4 &amp; ind_gender == "female", 1, 0),"yes","no",NULL),</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.5">
+      <c r="A26" s="45" t="s">
+        <v>170</v>
+      </c>
+      <c r="B26" s="46" t="s">
+        <v>627</v>
+      </c>
+      <c r="C26" t="s">
+        <v>642</v>
+      </c>
+      <c r="D26" t="str">
+        <f t="shared" si="0"/>
+        <v>i.ind_formal_learning_m_4=if_else( (ind_formal_learning !== "none" &amp; individual_age ==== 4 &amp; ind_gender == "male", 1, 0),"yes","no",NULL),</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.5">
+      <c r="A27" s="45" t="s">
+        <v>171</v>
+      </c>
+      <c r="B27" s="46" t="s">
+        <v>628</v>
+      </c>
+      <c r="C27" t="s">
+        <v>642</v>
+      </c>
+      <c r="D27" t="str">
+        <f t="shared" si="0"/>
+        <v>i.ind_formal_learning_f_5_11=if_else( (ind_formal_learning !== "none" &amp; individual_age &gt;= 5 &amp; individual_age &lt;= 11 &amp; ind_gender == "female", 1, 0),"yes","no",NULL),</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.5">
+      <c r="A28" s="45" t="s">
+        <v>172</v>
+      </c>
+      <c r="B28" s="46" t="s">
+        <v>629</v>
+      </c>
+      <c r="C28" t="s">
+        <v>642</v>
+      </c>
+      <c r="D28" t="str">
+        <f t="shared" si="0"/>
+        <v>i.ind_formal_learning_m_5_11=if_else( (ind_formal_learning !== "none" &amp; individual_age &gt;= 5 &amp; individual_age &lt;= 11 &amp; ind_gender == "male", 1, 0),"yes","no",NULL),</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.5">
+      <c r="A29" s="45" t="s">
+        <v>173</v>
+      </c>
+      <c r="B29" s="46" t="s">
+        <v>630</v>
+      </c>
+      <c r="C29" t="s">
+        <v>642</v>
+      </c>
+      <c r="D29" t="str">
+        <f t="shared" si="0"/>
+        <v>i.ind_formal_learning_f_12_17=if_else( (ind_formal_learning !== "none" &amp; individual_age &gt;= 12 &amp; individual_age &lt;= 17 &amp; ind_gender == "female", 1, 0),"yes","no",NULL),</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.5">
+      <c r="A30" s="45" t="s">
+        <v>174</v>
+      </c>
+      <c r="B30" s="46" t="s">
+        <v>631</v>
+      </c>
+      <c r="C30" t="s">
+        <v>642</v>
+      </c>
+      <c r="D30" t="str">
+        <f t="shared" si="0"/>
+        <v>i.ind_formal_learning_m_12_17=if_else( (ind_formal_learning !== "none" &amp; individual_age &gt;= 12 &amp; individual_age &lt;= 17 &amp; ind_gender == "male", 1, 0),"yes","no",NULL),</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.5">
+      <c r="A31" s="45" t="s">
+        <v>175</v>
+      </c>
+      <c r="B31" s="46" t="s">
+        <v>632</v>
+      </c>
+      <c r="C31" t="s">
+        <v>642</v>
+      </c>
+      <c r="D31" t="str">
+        <f t="shared" si="0"/>
+        <v>i.ind_formal_learning_f_18_24=if_else( (ind_formal_learning !== "none" &amp; individual_age &gt;= 18 &amp; individual_age &lt;= 24 &amp; ind_gender == "female", 1, 0),"yes","no",NULL),</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.5">
+      <c r="A32" s="45" t="s">
+        <v>176</v>
+      </c>
+      <c r="B32" s="46" t="s">
+        <v>633</v>
+      </c>
+      <c r="C32" t="s">
+        <v>642</v>
+      </c>
+      <c r="D32" t="str">
+        <f t="shared" si="0"/>
+        <v>i.ind_formal_learning_m_18_24=if_else( (ind_formal_learning !== "none" &amp; individual_age &gt;= 18 &amp; individual_age &lt;= 24 &amp; ind_gender == "male", 1, 0),"yes","no",NULL),</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.5">
+      <c r="A33" s="45" t="s">
+        <v>193</v>
+      </c>
+      <c r="B33" s="46" t="s">
+        <v>634</v>
+      </c>
+      <c r="C33" t="s">
+        <v>642</v>
+      </c>
+      <c r="D33" t="str">
+        <f t="shared" si="0"/>
+        <v>i.ind_nonformal_learn_f_4=if_else( (ind_nonformal_learn !== "none" &amp; individual_age ==== 4 &amp; ind_gender == "female", 1, 0),"yes","no",NULL),</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.5">
+      <c r="A34" s="45" t="s">
+        <v>195</v>
+      </c>
+      <c r="B34" s="46" t="s">
+        <v>635</v>
+      </c>
+      <c r="C34" t="s">
+        <v>642</v>
+      </c>
+      <c r="D34" t="str">
+        <f t="shared" si="0"/>
+        <v>i.ind_nonformal_learn_m_4=if_else( (ind_nonformal_learn !== "none" &amp; individual_age ==== 4 &amp; ind_gender == "male", 1, 0),"yes","no",NULL),</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.5">
+      <c r="A35" s="45" t="s">
+        <v>197</v>
+      </c>
+      <c r="B35" s="46" t="s">
+        <v>636</v>
+      </c>
+      <c r="C35" t="s">
+        <v>642</v>
+      </c>
+      <c r="D35" t="str">
+        <f t="shared" si="0"/>
+        <v>i.ind_nonformal_learn_f_5_11=if_else( (ind_nonformal_learn !== "none" &amp; individual_age &gt;= 5 &amp; individual_age &lt;= 11 &amp; ind_gender == "female", 1, 0),"yes","no",NULL),</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.5">
+      <c r="A36" s="45" t="s">
+        <v>199</v>
+      </c>
+      <c r="B36" s="46" t="s">
+        <v>637</v>
+      </c>
+      <c r="C36" t="s">
+        <v>642</v>
+      </c>
+      <c r="D36" t="str">
+        <f t="shared" si="0"/>
+        <v>i.ind_nonformal_learn_m_5_11=if_else( (ind_nonformal_learn !== "none" &amp; individual_age &gt;= 5 &amp; individual_age &lt;= 11 &amp; ind_gender == "male", 1, 0),"yes","no",NULL),</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.5">
+      <c r="A37" s="45" t="s">
+        <v>201</v>
+      </c>
+      <c r="B37" s="46" t="s">
+        <v>638</v>
+      </c>
+      <c r="C37" t="s">
+        <v>642</v>
+      </c>
+      <c r="D37" t="str">
+        <f t="shared" si="0"/>
+        <v>i.ind_nonformal_learn_f_12_17=if_else( (ind_nonformal_learn !== "none" &amp; individual_age &gt;= 12 &amp; individual_age &lt;= 17 &amp; ind_gender == "female", 1, 0),"yes","no",NULL),</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.5">
+      <c r="A38" s="45" t="s">
+        <v>203</v>
+      </c>
+      <c r="B38" s="46" t="s">
+        <v>639</v>
+      </c>
+      <c r="C38" t="s">
+        <v>642</v>
+      </c>
+      <c r="D38" t="str">
+        <f t="shared" si="0"/>
+        <v>i.ind_nonformal_learn_m_12_17=if_else( (ind_nonformal_learn !== "none" &amp; individual_age &gt;= 12 &amp; individual_age &lt;= 17 &amp; ind_gender == "male", 1, 0),"yes","no",NULL),</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.5">
+      <c r="A39" s="45" t="s">
+        <v>205</v>
+      </c>
+      <c r="B39" s="46" t="s">
+        <v>640</v>
+      </c>
+      <c r="C39" t="s">
+        <v>642</v>
+      </c>
+      <c r="D39" t="str">
+        <f t="shared" si="0"/>
+        <v>i.ind_nonformal_learn_f_18_24=if_else( (ind_nonformal_learn !== "none" &amp; individual_age &gt;= 18 &amp; individual_age &lt;= 24 &amp; ind_gender == "female", 1, 0),"yes","no",NULL),</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.5">
+      <c r="A40" s="45" t="s">
+        <v>207</v>
+      </c>
+      <c r="B40" s="46" t="s">
+        <v>641</v>
+      </c>
+      <c r="C40" t="s">
+        <v>642</v>
+      </c>
+      <c r="D40" t="str">
+        <f t="shared" si="0"/>
+        <v>i.ind_nonformal_learn_m_18_24=if_else( (ind_nonformal_learn !== "none" &amp; individual_age &gt;= 18 &amp; individual_age &lt;= 24 &amp; ind_gender == "male", 1, 0),"yes","no",NULL),</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AC96C9E0-A55A-43C7-97A6-EB97E8B5C706}">
+  <sheetPr>
+    <tabColor theme="8" tint="0.39997558519241921"/>
+  </sheetPr>
+  <dimension ref="A1:A40"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.35" x14ac:dyDescent="0.5"/>
+  <cols>
+    <col min="1" max="1" width="125.8203125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.5">
+      <c r="A1" s="72" t="s">
+        <v>643</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.5">
+      <c r="A2" s="72" t="s">
+        <v>644</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.5">
+      <c r="A3" s="72" t="s">
+        <v>645</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.5">
+      <c r="A4" s="72" t="s">
+        <v>646</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.5">
+      <c r="A5" s="72" t="s">
+        <v>647</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" x14ac:dyDescent="0.5">
+      <c r="A6" s="72" t="s">
+        <v>648</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1" x14ac:dyDescent="0.5">
+      <c r="A7" s="72" t="s">
+        <v>649</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1" x14ac:dyDescent="0.5">
+      <c r="A8" s="72" t="s">
+        <v>650</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1" x14ac:dyDescent="0.5">
+      <c r="A9" s="72" t="s">
+        <v>651</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1" x14ac:dyDescent="0.5">
+      <c r="A10" s="72" t="s">
+        <v>652</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1" x14ac:dyDescent="0.5">
+      <c r="A11" s="72" t="s">
+        <v>653</v>
+      </c>
+    </row>
+    <row r="12" spans="1:1" x14ac:dyDescent="0.5">
+      <c r="A12" s="72" t="s">
+        <v>654</v>
+      </c>
+    </row>
+    <row r="13" spans="1:1" x14ac:dyDescent="0.5">
+      <c r="A13" s="72" t="s">
+        <v>655</v>
+      </c>
+    </row>
+    <row r="14" spans="1:1" x14ac:dyDescent="0.5">
+      <c r="A14" s="72" t="s">
+        <v>656</v>
+      </c>
+    </row>
+    <row r="15" spans="1:1" x14ac:dyDescent="0.5">
+      <c r="A15" s="72" t="s">
+        <v>657</v>
+      </c>
+    </row>
+    <row r="16" spans="1:1" x14ac:dyDescent="0.5">
+      <c r="A16" s="72" t="s">
+        <v>658</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.5">
+      <c r="A17" s="72" t="s">
+        <v>659</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.5">
+      <c r="A18" s="72" t="s">
+        <v>660</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.5">
+      <c r="A19" s="72" t="s">
+        <v>661</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1" x14ac:dyDescent="0.5">
+      <c r="A20" s="72" t="s">
+        <v>662</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1" x14ac:dyDescent="0.5">
+      <c r="A21" s="72" t="s">
+        <v>663</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1" x14ac:dyDescent="0.5">
+      <c r="A22" s="72" t="s">
+        <v>664</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1" x14ac:dyDescent="0.5">
+      <c r="A23" s="72" t="s">
+        <v>665</v>
+      </c>
+    </row>
+    <row r="24" spans="1:1" x14ac:dyDescent="0.5">
+      <c r="A24" s="72" t="s">
+        <v>666</v>
+      </c>
+    </row>
+    <row r="25" spans="1:1" x14ac:dyDescent="0.5">
+      <c r="A25" s="46" t="s">
+        <v>667</v>
+      </c>
+    </row>
+    <row r="26" spans="1:1" x14ac:dyDescent="0.5">
+      <c r="A26" s="46" t="s">
+        <v>668</v>
+      </c>
+    </row>
+    <row r="27" spans="1:1" x14ac:dyDescent="0.5">
+      <c r="A27" s="46" t="s">
+        <v>669</v>
+      </c>
+    </row>
+    <row r="28" spans="1:1" x14ac:dyDescent="0.5">
+      <c r="A28" s="46" t="s">
+        <v>670</v>
+      </c>
+    </row>
+    <row r="29" spans="1:1" x14ac:dyDescent="0.5">
+      <c r="A29" s="46" t="s">
+        <v>671</v>
+      </c>
+    </row>
+    <row r="30" spans="1:1" x14ac:dyDescent="0.5">
+      <c r="A30" s="46" t="s">
+        <v>672</v>
+      </c>
+    </row>
+    <row r="31" spans="1:1" x14ac:dyDescent="0.5">
+      <c r="A31" s="46" t="s">
+        <v>673</v>
+      </c>
+    </row>
+    <row r="32" spans="1:1" x14ac:dyDescent="0.5">
+      <c r="A32" s="46" t="s">
+        <v>674</v>
+      </c>
+    </row>
+    <row r="33" spans="1:1" x14ac:dyDescent="0.5">
+      <c r="A33" s="46" t="s">
+        <v>675</v>
+      </c>
+    </row>
+    <row r="34" spans="1:1" x14ac:dyDescent="0.5">
+      <c r="A34" s="46" t="s">
+        <v>676</v>
+      </c>
+    </row>
+    <row r="35" spans="1:1" x14ac:dyDescent="0.5">
+      <c r="A35" s="46" t="s">
+        <v>677</v>
+      </c>
+    </row>
+    <row r="36" spans="1:1" x14ac:dyDescent="0.5">
+      <c r="A36" s="46" t="s">
+        <v>678</v>
+      </c>
+    </row>
+    <row r="37" spans="1:1" x14ac:dyDescent="0.5">
+      <c r="A37" s="46" t="s">
+        <v>679</v>
+      </c>
+    </row>
+    <row r="38" spans="1:1" x14ac:dyDescent="0.5">
+      <c r="A38" s="46" t="s">
+        <v>680</v>
+      </c>
+    </row>
+    <row r="39" spans="1:1" x14ac:dyDescent="0.5">
+      <c r="A39" s="46" t="s">
+        <v>681</v>
+      </c>
+    </row>
+    <row r="40" spans="1:1" x14ac:dyDescent="0.5">
+      <c r="A40" s="46" t="s">
+        <v>682</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.35" x14ac:dyDescent="0.5"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <sheetPr>
     <tabColor theme="8" tint="0.39997558519241921"/>
   </sheetPr>
   <dimension ref="A1:XFD273"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <pane ySplit="3" topLeftCell="A19" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="G28" sqref="G28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9.1171875" defaultRowHeight="13" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="16.5703125" style="3" customWidth="1"/>
-    <col min="2" max="2" width="31.85546875" style="1" customWidth="1"/>
+    <col min="1" max="1" width="16.5859375" style="3" customWidth="1"/>
+    <col min="2" max="2" width="31.87890625" style="1" customWidth="1"/>
     <col min="3" max="3" width="16" style="1" hidden="1" customWidth="1"/>
-    <col min="4" max="4" width="33.140625" style="1" customWidth="1"/>
-    <col min="5" max="5" width="11.28515625" style="3" customWidth="1"/>
-    <col min="6" max="6" width="11.7109375" style="3" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="43.5703125" style="1" customWidth="1"/>
-    <col min="8" max="8" width="16.7109375" style="3" customWidth="1"/>
-    <col min="9" max="9" width="18.5703125" style="3" hidden="1" customWidth="1"/>
-    <col min="10" max="10" width="10.5703125" style="3" hidden="1" customWidth="1"/>
-    <col min="11" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="33.1171875" style="1" customWidth="1"/>
+    <col min="5" max="5" width="11.29296875" style="3" customWidth="1"/>
+    <col min="6" max="6" width="11.703125" style="3" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="43.5859375" style="1" customWidth="1"/>
+    <col min="8" max="8" width="16.703125" style="3" customWidth="1"/>
+    <col min="9" max="9" width="18.5859375" style="3" hidden="1" customWidth="1"/>
+    <col min="10" max="10" width="10.5859375" style="3" hidden="1" customWidth="1"/>
+    <col min="11" max="16384" width="9.1171875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="53.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:10" ht="53.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A1" s="96" t="s">
         <v>67</v>
       </c>
@@ -5140,7 +6235,7 @@
       <c r="I1" s="96"/>
       <c r="J1" s="96"/>
     </row>
-    <row r="2" spans="1:10" ht="41.45" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:10" ht="26" x14ac:dyDescent="0.45">
       <c r="A2" s="6"/>
       <c r="B2" s="6"/>
       <c r="C2" s="6"/>
@@ -5158,7 +6253,7 @@
       </c>
       <c r="J2" s="6"/>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A3" s="5" t="s">
         <v>15</v>
       </c>
@@ -5190,7 +6285,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="4" spans="1:10" s="37" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:10" s="37" customFormat="1" ht="14.35" x14ac:dyDescent="0.5">
       <c r="A4" s="38" t="s">
         <v>60</v>
       </c>
@@ -5204,7 +6299,7 @@
       <c r="I4" s="36"/>
       <c r="J4" s="36"/>
     </row>
-    <row r="5" spans="1:10" s="9" customFormat="1" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:10" s="9" customFormat="1" ht="14.35" x14ac:dyDescent="0.5">
       <c r="A5" s="21"/>
       <c r="B5" s="22" t="s">
         <v>61</v>
@@ -5224,7 +6319,7 @@
       <c r="I5" s="14"/>
       <c r="J5" s="14"/>
     </row>
-    <row r="6" spans="1:10" s="9" customFormat="1" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:10" s="9" customFormat="1" ht="14.35" x14ac:dyDescent="0.5">
       <c r="A6" s="21"/>
       <c r="B6" s="22" t="s">
         <v>63</v>
@@ -5242,7 +6337,7 @@
       <c r="I6" s="14"/>
       <c r="J6" s="14"/>
     </row>
-    <row r="7" spans="1:10" s="9" customFormat="1" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:10" s="9" customFormat="1" ht="14.35" x14ac:dyDescent="0.5">
       <c r="A7" s="21"/>
       <c r="B7" s="22" t="s">
         <v>1</v>
@@ -5260,7 +6355,7 @@
       <c r="I7" s="14"/>
       <c r="J7" s="14"/>
     </row>
-    <row r="8" spans="1:10" s="37" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:10" s="37" customFormat="1" ht="14.35" x14ac:dyDescent="0.5">
       <c r="A8" s="38" t="s">
         <v>65</v>
       </c>
@@ -5274,7 +6369,7 @@
       <c r="I8" s="36"/>
       <c r="J8" s="36"/>
     </row>
-    <row r="9" spans="1:10" s="9" customFormat="1" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:10" s="9" customFormat="1" ht="14.35" x14ac:dyDescent="0.5">
       <c r="A9" s="21"/>
       <c r="B9" s="23" t="s">
         <v>31</v>
@@ -5292,7 +6387,7 @@
       <c r="I9" s="14"/>
       <c r="J9" s="14"/>
     </row>
-    <row r="10" spans="1:10" s="9" customFormat="1" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:10" s="9" customFormat="1" ht="14.35" x14ac:dyDescent="0.5">
       <c r="A10" s="21"/>
       <c r="B10" s="22" t="s">
         <v>34</v>
@@ -5312,7 +6407,7 @@
       <c r="I10" s="14"/>
       <c r="J10" s="14"/>
     </row>
-    <row r="11" spans="1:10" s="9" customFormat="1" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:10" s="9" customFormat="1" ht="14.35" x14ac:dyDescent="0.5">
       <c r="A11" s="21"/>
       <c r="B11" s="22" t="s">
         <v>68</v>
@@ -5332,7 +6427,7 @@
       <c r="I11" s="14"/>
       <c r="J11" s="14"/>
     </row>
-    <row r="12" spans="1:10" s="9" customFormat="1" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:10" s="9" customFormat="1" ht="14.35" x14ac:dyDescent="0.5">
       <c r="A12" s="21"/>
       <c r="B12" s="22" t="s">
         <v>44</v>
@@ -5352,7 +6447,7 @@
       <c r="I12" s="14"/>
       <c r="J12" s="14"/>
     </row>
-    <row r="13" spans="1:10" s="9" customFormat="1" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:10" s="9" customFormat="1" ht="14.35" x14ac:dyDescent="0.5">
       <c r="A13" s="21"/>
       <c r="B13" s="22" t="s">
         <v>37</v>
@@ -5372,7 +6467,7 @@
       <c r="I13" s="14"/>
       <c r="J13" s="14"/>
     </row>
-    <row r="14" spans="1:10" s="9" customFormat="1" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:10" s="9" customFormat="1" ht="14.35" x14ac:dyDescent="0.5">
       <c r="A14" s="21"/>
       <c r="B14" s="22" t="s">
         <v>41</v>
@@ -5392,7 +6487,7 @@
       <c r="I14" s="14"/>
       <c r="J14" s="14"/>
     </row>
-    <row r="15" spans="1:10" s="33" customFormat="1" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:10" s="33" customFormat="1" ht="14.35" x14ac:dyDescent="0.5">
       <c r="A15" s="29"/>
       <c r="B15" s="30" t="s">
         <v>69</v>
@@ -5412,7 +6507,7 @@
       <c r="I15" s="32"/>
       <c r="J15" s="32"/>
     </row>
-    <row r="16" spans="1:10" s="9" customFormat="1" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:10" s="9" customFormat="1" ht="14.35" x14ac:dyDescent="0.5">
       <c r="A16" s="21"/>
       <c r="B16" s="22" t="s">
         <v>70</v>
@@ -5432,7 +6527,7 @@
       <c r="I16" s="14"/>
       <c r="J16" s="14"/>
     </row>
-    <row r="17" spans="1:10" s="9" customFormat="1" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:10" s="9" customFormat="1" ht="14.35" x14ac:dyDescent="0.5">
       <c r="A17" s="21"/>
       <c r="B17" s="15" t="s">
         <v>51</v>
@@ -5452,7 +6547,7 @@
       <c r="I17" s="14"/>
       <c r="J17" s="14"/>
     </row>
-    <row r="18" spans="1:10" s="33" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:10" s="33" customFormat="1" ht="14.35" x14ac:dyDescent="0.5">
       <c r="A18" s="29"/>
       <c r="B18" s="31" t="s">
         <v>71</v>
@@ -5472,7 +6567,7 @@
       <c r="I18" s="32"/>
       <c r="J18" s="32"/>
     </row>
-    <row r="19" spans="1:10" s="33" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:10" s="33" customFormat="1" ht="14.35" x14ac:dyDescent="0.5">
       <c r="A19" s="29"/>
       <c r="B19" s="31" t="s">
         <v>488</v>
@@ -5492,7 +6587,7 @@
       <c r="I19" s="32"/>
       <c r="J19" s="32"/>
     </row>
-    <row r="20" spans="1:10" s="9" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:10" s="9" customFormat="1" ht="14.35" x14ac:dyDescent="0.5">
       <c r="A20" s="21"/>
       <c r="B20" s="15" t="s">
         <v>58</v>
@@ -5512,7 +6607,7 @@
       <c r="I20" s="14"/>
       <c r="J20" s="14"/>
     </row>
-    <row r="21" spans="1:10" s="9" customFormat="1" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:10" s="9" customFormat="1" ht="14.35" x14ac:dyDescent="0.5">
       <c r="A21" s="21"/>
       <c r="B21" s="15" t="s">
         <v>76</v>
@@ -5532,7 +6627,7 @@
       <c r="I21" s="14"/>
       <c r="J21" s="14"/>
     </row>
-    <row r="22" spans="1:10" s="9" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:10" s="9" customFormat="1" ht="14.35" x14ac:dyDescent="0.5">
       <c r="A22" s="21"/>
       <c r="B22" s="15" t="s">
         <v>56</v>
@@ -5552,7 +6647,7 @@
       <c r="I22" s="14"/>
       <c r="J22" s="14"/>
     </row>
-    <row r="23" spans="1:10" s="9" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:10" s="9" customFormat="1" ht="14.35" x14ac:dyDescent="0.5">
       <c r="A23" s="21"/>
       <c r="B23" s="15" t="s">
         <v>483</v>
@@ -5572,7 +6667,7 @@
       <c r="I23" s="14"/>
       <c r="J23" s="14"/>
     </row>
-    <row r="24" spans="1:10" s="9" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:10" s="9" customFormat="1" ht="14.35" x14ac:dyDescent="0.5">
       <c r="A24" s="21"/>
       <c r="B24" s="15" t="s">
         <v>487</v>
@@ -5592,7 +6687,7 @@
       <c r="I24" s="14"/>
       <c r="J24" s="14"/>
     </row>
-    <row r="25" spans="1:10" s="9" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:10" s="9" customFormat="1" ht="14.35" x14ac:dyDescent="0.5">
       <c r="A25" s="21"/>
       <c r="B25" s="15" t="s">
         <v>484</v>
@@ -5612,7 +6707,7 @@
       <c r="I25" s="14"/>
       <c r="J25" s="14"/>
     </row>
-    <row r="26" spans="1:10" s="9" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:10" s="9" customFormat="1" ht="14.35" x14ac:dyDescent="0.5">
       <c r="A26" s="21"/>
       <c r="B26" s="15" t="s">
         <v>74</v>
@@ -5632,7 +6727,7 @@
       <c r="I26" s="14"/>
       <c r="J26" s="14"/>
     </row>
-    <row r="27" spans="1:10" s="37" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:10" s="37" customFormat="1" ht="14.35" x14ac:dyDescent="0.5">
       <c r="A27" s="38" t="s">
         <v>77</v>
       </c>
@@ -5647,7 +6742,7 @@
       <c r="I27" s="36"/>
       <c r="J27" s="36"/>
     </row>
-    <row r="28" spans="1:10" s="9" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:10" s="9" customFormat="1" ht="14.35" x14ac:dyDescent="0.5">
       <c r="A28" s="28"/>
       <c r="B28" s="15" t="s">
         <v>78</v>
@@ -5667,7 +6762,7 @@
       <c r="I28" s="14"/>
       <c r="J28" s="14"/>
     </row>
-    <row r="29" spans="1:10" s="9" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:10" s="9" customFormat="1" ht="14.35" x14ac:dyDescent="0.5">
       <c r="A29" s="21"/>
       <c r="B29" s="22" t="s">
         <v>79</v>
@@ -5687,7 +6782,7 @@
       <c r="I29" s="14"/>
       <c r="J29" s="14"/>
     </row>
-    <row r="30" spans="1:10" s="9" customFormat="1" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:10" s="9" customFormat="1" ht="14.35" x14ac:dyDescent="0.5">
       <c r="A30" s="21"/>
       <c r="B30" s="22" t="s">
         <v>84</v>
@@ -5707,7 +6802,7 @@
       <c r="I30" s="14"/>
       <c r="J30" s="14"/>
     </row>
-    <row r="31" spans="1:10" s="9" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:10" s="9" customFormat="1" ht="14.35" x14ac:dyDescent="0.5">
       <c r="A31" s="21"/>
       <c r="B31" s="22" t="s">
         <v>601</v>
@@ -5727,7 +6822,7 @@
       <c r="I31" s="14"/>
       <c r="J31" s="14"/>
     </row>
-    <row r="32" spans="1:10" s="9" customFormat="1" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:10" s="9" customFormat="1" ht="14.35" x14ac:dyDescent="0.5">
       <c r="A32" s="21"/>
       <c r="B32" s="22" t="s">
         <v>85</v>
@@ -5747,7 +6842,7 @@
       <c r="I32" s="14"/>
       <c r="J32" s="14"/>
     </row>
-    <row r="33" spans="1:10" s="9" customFormat="1" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:10" s="9" customFormat="1" ht="14.35" x14ac:dyDescent="0.5">
       <c r="A33" s="21"/>
       <c r="B33" s="22" t="s">
         <v>86</v>
@@ -5767,7 +6862,7 @@
       <c r="I33" s="14"/>
       <c r="J33" s="14"/>
     </row>
-    <row r="34" spans="1:10" s="33" customFormat="1" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:10" s="33" customFormat="1" ht="14.35" x14ac:dyDescent="0.5">
       <c r="A34" s="29"/>
       <c r="B34" s="30" t="s">
         <v>87</v>
@@ -5787,7 +6882,7 @@
       <c r="I34" s="32"/>
       <c r="J34" s="32"/>
     </row>
-    <row r="35" spans="1:10" s="33" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:10" s="33" customFormat="1" ht="14.35" x14ac:dyDescent="0.5">
       <c r="A35" s="29"/>
       <c r="B35" s="30" t="s">
         <v>88</v>
@@ -5807,7 +6902,7 @@
       <c r="I35" s="32"/>
       <c r="J35" s="32"/>
     </row>
-    <row r="36" spans="1:10" s="33" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:10" s="33" customFormat="1" ht="14.35" x14ac:dyDescent="0.5">
       <c r="A36" s="29"/>
       <c r="B36" s="30" t="s">
         <v>89</v>
@@ -5827,7 +6922,7 @@
       <c r="I36" s="32"/>
       <c r="J36" s="32"/>
     </row>
-    <row r="37" spans="1:10" s="9" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:10" s="9" customFormat="1" ht="14.35" x14ac:dyDescent="0.5">
       <c r="A37" s="21"/>
       <c r="B37" s="22" t="s">
         <v>90</v>
@@ -5847,7 +6942,7 @@
       <c r="I37" s="14"/>
       <c r="J37" s="14"/>
     </row>
-    <row r="38" spans="1:10" s="39" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:10" s="39" customFormat="1" ht="14.35" x14ac:dyDescent="0.5">
       <c r="A38" s="38" t="s">
         <v>92</v>
       </c>
@@ -5860,7 +6955,7 @@
       <c r="I38" s="41"/>
       <c r="J38" s="41"/>
     </row>
-    <row r="39" spans="1:10" s="33" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:10" s="33" customFormat="1" ht="14.35" x14ac:dyDescent="0.5">
       <c r="A39" s="29"/>
       <c r="B39" s="30" t="s">
         <v>91</v>
@@ -5880,7 +6975,7 @@
       <c r="I39" s="32"/>
       <c r="J39" s="32"/>
     </row>
-    <row r="40" spans="1:10" s="39" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:10" s="39" customFormat="1" ht="14.35" x14ac:dyDescent="0.5">
       <c r="A40" s="38" t="s">
         <v>93</v>
       </c>
@@ -5893,7 +6988,7 @@
       <c r="I40" s="41"/>
       <c r="J40" s="41"/>
     </row>
-    <row r="41" spans="1:10" s="33" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:10" s="33" customFormat="1" ht="14.35" x14ac:dyDescent="0.5">
       <c r="A41" s="29"/>
       <c r="B41" s="30" t="s">
         <v>94</v>
@@ -5913,7 +7008,7 @@
       <c r="I41" s="32"/>
       <c r="J41" s="32"/>
     </row>
-    <row r="42" spans="1:10" s="33" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:10" s="33" customFormat="1" ht="14.35" x14ac:dyDescent="0.5">
       <c r="A42" s="29"/>
       <c r="B42" s="31" t="s">
         <v>95</v>
@@ -5935,7 +7030,7 @@
       <c r="I42" s="32"/>
       <c r="J42" s="32"/>
     </row>
-    <row r="43" spans="1:10" s="33" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:10" s="33" customFormat="1" ht="14.35" x14ac:dyDescent="0.5">
       <c r="A43" s="29"/>
       <c r="B43" s="31" t="s">
         <v>96</v>
@@ -5957,7 +7052,7 @@
       <c r="I43" s="32"/>
       <c r="J43" s="32"/>
     </row>
-    <row r="44" spans="1:10" s="33" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:10" s="33" customFormat="1" ht="14.35" x14ac:dyDescent="0.5">
       <c r="A44" s="29"/>
       <c r="B44" s="31" t="s">
         <v>97</v>
@@ -5979,7 +7074,7 @@
       <c r="I44" s="32"/>
       <c r="J44" s="32"/>
     </row>
-    <row r="45" spans="1:10" s="33" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:10" s="33" customFormat="1" ht="14.35" x14ac:dyDescent="0.5">
       <c r="A45" s="29"/>
       <c r="B45" s="31" t="s">
         <v>98</v>
@@ -6001,7 +7096,7 @@
       <c r="I45" s="32"/>
       <c r="J45" s="32"/>
     </row>
-    <row r="46" spans="1:10" s="33" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:10" s="33" customFormat="1" ht="14.35" x14ac:dyDescent="0.5">
       <c r="A46" s="29"/>
       <c r="B46" s="31" t="s">
         <v>99</v>
@@ -6023,7 +7118,7 @@
       <c r="I46" s="32"/>
       <c r="J46" s="32"/>
     </row>
-    <row r="47" spans="1:10" s="33" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:10" s="33" customFormat="1" ht="14.35" x14ac:dyDescent="0.5">
       <c r="A47" s="29"/>
       <c r="B47" s="31" t="s">
         <v>100</v>
@@ -6045,7 +7140,7 @@
       <c r="I47" s="32"/>
       <c r="J47" s="32"/>
     </row>
-    <row r="48" spans="1:10" s="33" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:10" s="33" customFormat="1" ht="14.35" x14ac:dyDescent="0.5">
       <c r="A48" s="29"/>
       <c r="B48" s="31" t="s">
         <v>101</v>
@@ -6067,7 +7162,7 @@
       <c r="I48" s="32"/>
       <c r="J48" s="32"/>
     </row>
-    <row r="49" spans="1:10" s="33" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:10" s="33" customFormat="1" ht="14.35" x14ac:dyDescent="0.5">
       <c r="A49" s="29"/>
       <c r="B49" s="31" t="s">
         <v>102</v>
@@ -6089,7 +7184,7 @@
       <c r="I49" s="32"/>
       <c r="J49" s="32"/>
     </row>
-    <row r="50" spans="1:10" s="33" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:10" s="33" customFormat="1" ht="14.35" x14ac:dyDescent="0.5">
       <c r="A50" s="29"/>
       <c r="B50" s="30" t="s">
         <v>119</v>
@@ -6109,7 +7204,7 @@
       <c r="I50" s="32"/>
       <c r="J50" s="32"/>
     </row>
-    <row r="51" spans="1:10" s="33" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:10" s="33" customFormat="1" ht="14.35" x14ac:dyDescent="0.5">
       <c r="A51" s="29"/>
       <c r="B51" s="31" t="s">
         <v>120</v>
@@ -6131,7 +7226,7 @@
       <c r="I51" s="32"/>
       <c r="J51" s="32"/>
     </row>
-    <row r="52" spans="1:10" s="33" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:10" s="33" customFormat="1" ht="14.35" x14ac:dyDescent="0.5">
       <c r="A52" s="29"/>
       <c r="B52" s="31" t="s">
         <v>121</v>
@@ -6153,7 +7248,7 @@
       <c r="I52" s="32"/>
       <c r="J52" s="32"/>
     </row>
-    <row r="53" spans="1:10" s="33" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:10" s="33" customFormat="1" ht="14.35" x14ac:dyDescent="0.5">
       <c r="A53" s="29"/>
       <c r="B53" s="31" t="s">
         <v>122</v>
@@ -6175,7 +7270,7 @@
       <c r="I53" s="32"/>
       <c r="J53" s="32"/>
     </row>
-    <row r="54" spans="1:10" s="33" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:10" s="33" customFormat="1" ht="14.35" x14ac:dyDescent="0.5">
       <c r="A54" s="29"/>
       <c r="B54" s="31" t="s">
         <v>123</v>
@@ -6197,7 +7292,7 @@
       <c r="I54" s="32"/>
       <c r="J54" s="32"/>
     </row>
-    <row r="55" spans="1:10" s="33" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:10" s="33" customFormat="1" ht="14.35" x14ac:dyDescent="0.5">
       <c r="A55" s="44"/>
       <c r="B55" s="31" t="s">
         <v>124</v>
@@ -6219,7 +7314,7 @@
       <c r="I55" s="32"/>
       <c r="J55" s="32"/>
     </row>
-    <row r="56" spans="1:10" s="33" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:10" s="33" customFormat="1" ht="14.35" x14ac:dyDescent="0.5">
       <c r="A56" s="29"/>
       <c r="B56" s="31" t="s">
         <v>125</v>
@@ -6241,7 +7336,7 @@
       <c r="I56" s="32"/>
       <c r="J56" s="32"/>
     </row>
-    <row r="57" spans="1:10" s="33" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:10" s="33" customFormat="1" ht="14.35" x14ac:dyDescent="0.5">
       <c r="A57" s="29"/>
       <c r="B57" s="31" t="s">
         <v>126</v>
@@ -6263,7 +7358,7 @@
       <c r="I57" s="32"/>
       <c r="J57" s="32"/>
     </row>
-    <row r="58" spans="1:10" s="33" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:10" s="33" customFormat="1" ht="14.35" x14ac:dyDescent="0.5">
       <c r="A58" s="29"/>
       <c r="B58" s="31" t="s">
         <v>127</v>
@@ -6285,7 +7380,7 @@
       <c r="I58" s="32"/>
       <c r="J58" s="32"/>
     </row>
-    <row r="59" spans="1:10" s="33" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:10" s="33" customFormat="1" ht="14.35" x14ac:dyDescent="0.5">
       <c r="A59" s="29"/>
       <c r="B59" s="30" t="s">
         <v>128</v>
@@ -6305,7 +7400,7 @@
       <c r="I59" s="32"/>
       <c r="J59" s="32"/>
     </row>
-    <row r="60" spans="1:10" s="33" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:10" s="33" customFormat="1" ht="14.35" x14ac:dyDescent="0.5">
       <c r="A60" s="29"/>
       <c r="B60" s="31" t="s">
         <v>129</v>
@@ -6327,7 +7422,7 @@
       <c r="I60" s="32"/>
       <c r="J60" s="32"/>
     </row>
-    <row r="61" spans="1:10" s="33" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:10" s="33" customFormat="1" ht="14.35" x14ac:dyDescent="0.5">
       <c r="A61" s="29"/>
       <c r="B61" s="31" t="s">
         <v>130</v>
@@ -6349,7 +7444,7 @@
       <c r="I61" s="32"/>
       <c r="J61" s="32"/>
     </row>
-    <row r="62" spans="1:10" s="33" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:10" s="33" customFormat="1" ht="14.35" x14ac:dyDescent="0.5">
       <c r="A62" s="29"/>
       <c r="B62" s="31" t="s">
         <v>131</v>
@@ -6371,7 +7466,7 @@
       <c r="I62" s="32"/>
       <c r="J62" s="32"/>
     </row>
-    <row r="63" spans="1:10" s="33" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:10" s="33" customFormat="1" ht="14.35" x14ac:dyDescent="0.5">
       <c r="A63" s="29"/>
       <c r="B63" s="31" t="s">
         <v>132</v>
@@ -6393,7 +7488,7 @@
       <c r="I63" s="32"/>
       <c r="J63" s="32"/>
     </row>
-    <row r="64" spans="1:10" s="33" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:10" s="33" customFormat="1" ht="14.35" x14ac:dyDescent="0.5">
       <c r="A64" s="29"/>
       <c r="B64" s="31" t="s">
         <v>133</v>
@@ -6415,7 +7510,7 @@
       <c r="I64" s="32"/>
       <c r="J64" s="32"/>
     </row>
-    <row r="65" spans="1:10" s="33" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:10" s="33" customFormat="1" ht="14.35" x14ac:dyDescent="0.5">
       <c r="A65" s="29"/>
       <c r="B65" s="31" t="s">
         <v>134</v>
@@ -6437,7 +7532,7 @@
       <c r="I65" s="32"/>
       <c r="J65" s="32"/>
     </row>
-    <row r="66" spans="1:10" s="33" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:10" s="33" customFormat="1" ht="14.35" x14ac:dyDescent="0.5">
       <c r="A66" s="29"/>
       <c r="B66" s="31" t="s">
         <v>135</v>
@@ -6459,7 +7554,7 @@
       <c r="I66" s="32"/>
       <c r="J66" s="32"/>
     </row>
-    <row r="67" spans="1:10" s="33" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:10" s="33" customFormat="1" ht="14.35" x14ac:dyDescent="0.5">
       <c r="A67" s="29"/>
       <c r="B67" s="31" t="s">
         <v>136</v>
@@ -6481,7 +7576,7 @@
       <c r="I67" s="32"/>
       <c r="J67" s="32"/>
     </row>
-    <row r="68" spans="1:10" s="50" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:10" s="50" customFormat="1" ht="14.35" x14ac:dyDescent="0.5">
       <c r="A68" s="48"/>
       <c r="B68" s="45" t="s">
         <v>221</v>
@@ -6499,7 +7594,7 @@
       <c r="I68" s="47"/>
       <c r="J68" s="47"/>
     </row>
-    <row r="69" spans="1:10" s="50" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:10" s="50" customFormat="1" ht="14.35" x14ac:dyDescent="0.5">
       <c r="A69" s="48"/>
       <c r="B69" s="45" t="s">
         <v>169</v>
@@ -6519,7 +7614,7 @@
       <c r="I69" s="47"/>
       <c r="J69" s="47"/>
     </row>
-    <row r="70" spans="1:10" s="50" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:10" s="50" customFormat="1" ht="14.35" x14ac:dyDescent="0.5">
       <c r="A70" s="48"/>
       <c r="B70" s="45" t="s">
         <v>170</v>
@@ -6539,7 +7634,7 @@
       <c r="I70" s="47"/>
       <c r="J70" s="47"/>
     </row>
-    <row r="71" spans="1:10" s="50" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:10" s="50" customFormat="1" ht="14.35" x14ac:dyDescent="0.5">
       <c r="A71" s="48"/>
       <c r="B71" s="45" t="s">
         <v>171</v>
@@ -6559,7 +7654,7 @@
       <c r="I71" s="47"/>
       <c r="J71" s="47"/>
     </row>
-    <row r="72" spans="1:10" s="50" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:10" s="50" customFormat="1" ht="14.35" x14ac:dyDescent="0.5">
       <c r="A72" s="48"/>
       <c r="B72" s="45" t="s">
         <v>172</v>
@@ -6579,7 +7674,7 @@
       <c r="I72" s="47"/>
       <c r="J72" s="47"/>
     </row>
-    <row r="73" spans="1:10" s="50" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:10" s="50" customFormat="1" ht="14.35" x14ac:dyDescent="0.5">
       <c r="A73" s="48"/>
       <c r="B73" s="45" t="s">
         <v>173</v>
@@ -6599,7 +7694,7 @@
       <c r="I73" s="47"/>
       <c r="J73" s="47"/>
     </row>
-    <row r="74" spans="1:10" s="50" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:10" s="50" customFormat="1" ht="14.35" x14ac:dyDescent="0.5">
       <c r="A74" s="48"/>
       <c r="B74" s="45" t="s">
         <v>174</v>
@@ -6619,7 +7714,7 @@
       <c r="I74" s="47"/>
       <c r="J74" s="47"/>
     </row>
-    <row r="75" spans="1:10" s="50" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:10" s="50" customFormat="1" ht="14.35" x14ac:dyDescent="0.5">
       <c r="A75" s="48"/>
       <c r="B75" s="45" t="s">
         <v>175</v>
@@ -6639,7 +7734,7 @@
       <c r="I75" s="47"/>
       <c r="J75" s="47"/>
     </row>
-    <row r="76" spans="1:10" s="50" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:10" s="50" customFormat="1" ht="14.35" x14ac:dyDescent="0.5">
       <c r="A76" s="48"/>
       <c r="B76" s="45" t="s">
         <v>176</v>
@@ -6659,7 +7754,7 @@
       <c r="I76" s="47"/>
       <c r="J76" s="47"/>
     </row>
-    <row r="77" spans="1:10" s="50" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:10" s="50" customFormat="1" ht="14.35" x14ac:dyDescent="0.5">
       <c r="A77" s="48"/>
       <c r="B77" s="45" t="s">
         <v>222</v>
@@ -6679,7 +7774,7 @@
       <c r="I77" s="47"/>
       <c r="J77" s="47"/>
     </row>
-    <row r="78" spans="1:10" s="50" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:10" s="50" customFormat="1" ht="14.35" x14ac:dyDescent="0.5">
       <c r="A78" s="48"/>
       <c r="B78" s="45" t="s">
         <v>193</v>
@@ -6699,7 +7794,7 @@
       <c r="I78" s="47"/>
       <c r="J78" s="47"/>
     </row>
-    <row r="79" spans="1:10" s="50" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:10" s="50" customFormat="1" ht="14.35" x14ac:dyDescent="0.5">
       <c r="A79" s="48"/>
       <c r="B79" s="45" t="s">
         <v>195</v>
@@ -6719,7 +7814,7 @@
       <c r="I79" s="47"/>
       <c r="J79" s="47"/>
     </row>
-    <row r="80" spans="1:10" s="50" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:10" s="50" customFormat="1" ht="14.35" x14ac:dyDescent="0.5">
       <c r="A80" s="48"/>
       <c r="B80" s="45" t="s">
         <v>197</v>
@@ -6739,7 +7834,7 @@
       <c r="I80" s="47"/>
       <c r="J80" s="47"/>
     </row>
-    <row r="81" spans="1:10" s="50" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:10" s="50" customFormat="1" ht="14.35" x14ac:dyDescent="0.5">
       <c r="A81" s="48"/>
       <c r="B81" s="45" t="s">
         <v>199</v>
@@ -6759,7 +7854,7 @@
       <c r="I81" s="47"/>
       <c r="J81" s="47"/>
     </row>
-    <row r="82" spans="1:10" s="50" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:10" s="50" customFormat="1" ht="14.35" x14ac:dyDescent="0.5">
       <c r="A82" s="48"/>
       <c r="B82" s="45" t="s">
         <v>201</v>
@@ -6779,7 +7874,7 @@
       <c r="I82" s="47"/>
       <c r="J82" s="47"/>
     </row>
-    <row r="83" spans="1:10" s="50" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:10" s="50" customFormat="1" ht="14.35" x14ac:dyDescent="0.5">
       <c r="A83" s="48"/>
       <c r="B83" s="45" t="s">
         <v>203</v>
@@ -6799,7 +7894,7 @@
       <c r="I83" s="47"/>
       <c r="J83" s="47"/>
     </row>
-    <row r="84" spans="1:10" s="50" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:10" s="50" customFormat="1" ht="14.35" x14ac:dyDescent="0.5">
       <c r="A84" s="49"/>
       <c r="B84" s="45" t="s">
         <v>205</v>
@@ -6819,7 +7914,7 @@
       <c r="I84" s="47"/>
       <c r="J84" s="47"/>
     </row>
-    <row r="85" spans="1:10" s="50" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:10" s="50" customFormat="1" ht="14.35" x14ac:dyDescent="0.5">
       <c r="A85" s="49"/>
       <c r="B85" s="45" t="s">
         <v>207</v>
@@ -6839,7 +7934,7 @@
       <c r="I85" s="47"/>
       <c r="J85" s="47"/>
     </row>
-    <row r="86" spans="1:10" s="50" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:10" s="50" customFormat="1" ht="14.35" x14ac:dyDescent="0.5">
       <c r="A86" s="49"/>
       <c r="B86" s="49" t="s">
         <v>217</v>
@@ -6859,7 +7954,7 @@
       <c r="I86" s="47"/>
       <c r="J86" s="47"/>
     </row>
-    <row r="87" spans="1:10" s="33" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:10" s="33" customFormat="1" ht="14.35" x14ac:dyDescent="0.5">
       <c r="A87" s="31"/>
       <c r="B87" s="31" t="s">
         <v>220</v>
@@ -6879,7 +7974,7 @@
       <c r="I87" s="32"/>
       <c r="J87" s="32"/>
     </row>
-    <row r="88" spans="1:10" s="50" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:10" s="50" customFormat="1" ht="14.35" x14ac:dyDescent="0.5">
       <c r="A88" s="49"/>
       <c r="B88" s="49" t="s">
         <v>220</v>
@@ -6899,7 +7994,7 @@
       <c r="I88" s="47"/>
       <c r="J88" s="47"/>
     </row>
-    <row r="89" spans="1:10" s="9" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:10" s="9" customFormat="1" ht="14.35" x14ac:dyDescent="0.5">
       <c r="A89" s="15"/>
       <c r="B89" s="15" t="s">
         <v>227</v>
@@ -6919,7 +8014,7 @@
       <c r="I89" s="14"/>
       <c r="J89" s="14"/>
     </row>
-    <row r="90" spans="1:10" s="33" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:10" s="33" customFormat="1" ht="14.35" x14ac:dyDescent="0.5">
       <c r="A90" s="31"/>
       <c r="B90" s="31" t="s">
         <v>228</v>
@@ -6937,7 +8032,7 @@
       <c r="I90" s="32"/>
       <c r="J90" s="32"/>
     </row>
-    <row r="91" spans="1:10" s="33" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:10" s="33" customFormat="1" ht="14.35" x14ac:dyDescent="0.5">
       <c r="A91" s="31"/>
       <c r="B91" s="31" t="s">
         <v>230</v>
@@ -6957,7 +8052,7 @@
       <c r="I91" s="32"/>
       <c r="J91" s="32"/>
     </row>
-    <row r="92" spans="1:10" s="33" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:10" s="33" customFormat="1" ht="14.35" x14ac:dyDescent="0.5">
       <c r="A92" s="31"/>
       <c r="B92" s="31" t="s">
         <v>233</v>
@@ -6977,7 +8072,7 @@
       <c r="I92" s="32"/>
       <c r="J92" s="32"/>
     </row>
-    <row r="93" spans="1:10" s="33" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:10" s="33" customFormat="1" ht="14.35" x14ac:dyDescent="0.5">
       <c r="A93" s="31"/>
       <c r="B93" s="31" t="s">
         <v>234</v>
@@ -6997,7 +8092,7 @@
       <c r="I93" s="32"/>
       <c r="J93" s="32"/>
     </row>
-    <row r="94" spans="1:10" s="9" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:10" s="9" customFormat="1" ht="14.35" x14ac:dyDescent="0.5">
       <c r="A94" s="15"/>
       <c r="B94" s="8" t="s">
         <v>235</v>
@@ -7015,7 +8110,7 @@
       <c r="I94" s="14"/>
       <c r="J94" s="14"/>
     </row>
-    <row r="95" spans="1:10" s="9" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:10" s="9" customFormat="1" ht="14.35" x14ac:dyDescent="0.5">
       <c r="A95" s="51"/>
       <c r="B95" s="8" t="s">
         <v>236</v>
@@ -7035,7 +8130,7 @@
       <c r="I95" s="14"/>
       <c r="J95" s="14"/>
     </row>
-    <row r="96" spans="1:10" s="9" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:10" s="9" customFormat="1" ht="14.35" x14ac:dyDescent="0.5">
       <c r="A96" s="15"/>
       <c r="B96" s="15" t="s">
         <v>243</v>
@@ -7055,7 +8150,7 @@
       <c r="I96" s="14"/>
       <c r="J96" s="14"/>
     </row>
-    <row r="97" spans="1:10" s="39" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:10" s="39" customFormat="1" ht="14.35" x14ac:dyDescent="0.5">
       <c r="A97" s="38" t="s">
         <v>290</v>
       </c>
@@ -7068,7 +8163,7 @@
       <c r="I97" s="41"/>
       <c r="J97" s="41"/>
     </row>
-    <row r="98" spans="1:10" s="9" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:10" s="9" customFormat="1" ht="14.35" x14ac:dyDescent="0.5">
       <c r="A98" s="15"/>
       <c r="B98" s="15" t="s">
         <v>244</v>
@@ -7088,7 +8183,7 @@
       <c r="I98" s="14"/>
       <c r="J98" s="14"/>
     </row>
-    <row r="99" spans="1:10" s="9" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:10" s="9" customFormat="1" ht="14.35" x14ac:dyDescent="0.5">
       <c r="A99" s="15"/>
       <c r="B99" s="8" t="s">
         <v>245</v>
@@ -7108,7 +8203,7 @@
       <c r="I99" s="14"/>
       <c r="J99" s="14"/>
     </row>
-    <row r="100" spans="1:10" s="9" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:10" s="9" customFormat="1" ht="14.35" x14ac:dyDescent="0.5">
       <c r="A100" s="15"/>
       <c r="B100" s="8" t="s">
         <v>247</v>
@@ -7130,7 +8225,7 @@
       <c r="I100" s="14"/>
       <c r="J100" s="14"/>
     </row>
-    <row r="101" spans="1:10" s="9" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:10" s="9" customFormat="1" ht="14.35" x14ac:dyDescent="0.5">
       <c r="A101" s="15"/>
       <c r="B101" s="8" t="s">
         <v>248</v>
@@ -7154,7 +8249,7 @@
       </c>
       <c r="J101" s="14"/>
     </row>
-    <row r="102" spans="1:10" s="9" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:10" s="9" customFormat="1" ht="14.35" x14ac:dyDescent="0.5">
       <c r="A102" s="15"/>
       <c r="B102" s="8" t="s">
         <v>249</v>
@@ -7178,7 +8273,7 @@
       </c>
       <c r="J102" s="14"/>
     </row>
-    <row r="103" spans="1:10" s="9" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:10" s="9" customFormat="1" ht="14.35" x14ac:dyDescent="0.5">
       <c r="A103" s="15"/>
       <c r="B103" s="8" t="s">
         <v>250</v>
@@ -7200,7 +8295,7 @@
       <c r="I103" s="14"/>
       <c r="J103" s="14"/>
     </row>
-    <row r="104" spans="1:10" s="9" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:10" s="9" customFormat="1" ht="14.35" x14ac:dyDescent="0.5">
       <c r="A104" s="15"/>
       <c r="B104" s="8" t="s">
         <v>251</v>
@@ -7222,7 +8317,7 @@
       <c r="I104" s="14"/>
       <c r="J104" s="14"/>
     </row>
-    <row r="105" spans="1:10" s="9" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:10" s="9" customFormat="1" ht="14.35" x14ac:dyDescent="0.5">
       <c r="A105" s="15"/>
       <c r="B105" s="8" t="s">
         <v>252</v>
@@ -7244,7 +8339,7 @@
       <c r="I105" s="14"/>
       <c r="J105" s="14"/>
     </row>
-    <row r="106" spans="1:10" s="9" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:10" s="9" customFormat="1" ht="14.35" x14ac:dyDescent="0.5">
       <c r="A106" s="15"/>
       <c r="B106" s="15" t="s">
         <v>259</v>
@@ -7266,7 +8361,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="107" spans="1:10" s="9" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:10" s="9" customFormat="1" ht="14.35" x14ac:dyDescent="0.5">
       <c r="A107" s="15"/>
       <c r="B107" s="15" t="s">
         <v>260</v>
@@ -7286,7 +8381,7 @@
       <c r="I107" s="14"/>
       <c r="J107" s="14"/>
     </row>
-    <row r="108" spans="1:10" s="9" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:10" s="9" customFormat="1" ht="14.35" x14ac:dyDescent="0.5">
       <c r="A108" s="15"/>
       <c r="B108" s="15" t="s">
         <v>261</v>
@@ -7306,7 +8401,7 @@
       <c r="I108" s="14"/>
       <c r="J108" s="14"/>
     </row>
-    <row r="109" spans="1:10" s="11" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:10" s="11" customFormat="1" ht="14.35" x14ac:dyDescent="0.5">
       <c r="A109" s="15"/>
       <c r="B109" s="15" t="s">
         <v>262</v>
@@ -7326,7 +8421,7 @@
       <c r="I109" s="16"/>
       <c r="J109" s="16"/>
     </row>
-    <row r="110" spans="1:10" s="11" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:10" s="11" customFormat="1" ht="14.35" x14ac:dyDescent="0.5">
       <c r="A110" s="15"/>
       <c r="B110" s="52" t="s">
         <v>263</v>
@@ -7346,7 +8441,7 @@
       <c r="I110" s="16"/>
       <c r="J110" s="16"/>
     </row>
-    <row r="111" spans="1:10" s="11" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:10" s="11" customFormat="1" ht="14.35" x14ac:dyDescent="0.5">
       <c r="A111" s="15"/>
       <c r="B111" s="54" t="s">
         <v>268</v>
@@ -7366,7 +8461,7 @@
       <c r="I111" s="16"/>
       <c r="J111" s="16"/>
     </row>
-    <row r="112" spans="1:10" s="9" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:10" s="9" customFormat="1" ht="14.35" x14ac:dyDescent="0.5">
       <c r="A112" s="15"/>
       <c r="B112" s="53" t="s">
         <v>264</v>
@@ -7386,7 +8481,7 @@
       <c r="I112" s="14"/>
       <c r="J112" s="14"/>
     </row>
-    <row r="113" spans="1:10" s="9" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:10" s="9" customFormat="1" ht="14.35" x14ac:dyDescent="0.5">
       <c r="A113" s="15"/>
       <c r="B113" s="53" t="s">
         <v>265</v>
@@ -7406,7 +8501,7 @@
       <c r="I113" s="14"/>
       <c r="J113" s="14"/>
     </row>
-    <row r="114" spans="1:10" s="9" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:10" s="9" customFormat="1" ht="14.35" x14ac:dyDescent="0.5">
       <c r="A114" s="15"/>
       <c r="B114" s="53" t="s">
         <v>266</v>
@@ -7426,7 +8521,7 @@
       <c r="I114" s="14"/>
       <c r="J114" s="14"/>
     </row>
-    <row r="115" spans="1:10" s="9" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:10" s="9" customFormat="1" ht="14.35" x14ac:dyDescent="0.5">
       <c r="A115" s="15"/>
       <c r="B115" s="52" t="s">
         <v>267</v>
@@ -7446,7 +8541,7 @@
       <c r="I115" s="14"/>
       <c r="J115" s="14"/>
     </row>
-    <row r="116" spans="1:10" s="9" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:10" s="9" customFormat="1" ht="14.35" x14ac:dyDescent="0.5">
       <c r="A116" s="15"/>
       <c r="B116" s="55" t="s">
         <v>278</v>
@@ -7466,7 +8561,7 @@
       <c r="I116" s="14"/>
       <c r="J116" s="14"/>
     </row>
-    <row r="117" spans="1:10" s="9" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:10" s="9" customFormat="1" ht="14.35" x14ac:dyDescent="0.5">
       <c r="A117" s="15"/>
       <c r="B117" s="57" t="s">
         <v>279</v>
@@ -7486,7 +8581,7 @@
       <c r="I117" s="14"/>
       <c r="J117" s="14"/>
     </row>
-    <row r="118" spans="1:10" s="9" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:10" s="9" customFormat="1" ht="14.35" x14ac:dyDescent="0.5">
       <c r="A118" s="15"/>
       <c r="B118" s="57" t="s">
         <v>280</v>
@@ -7506,7 +8601,7 @@
       <c r="I118" s="14"/>
       <c r="J118" s="14"/>
     </row>
-    <row r="119" spans="1:10" s="9" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:10" s="9" customFormat="1" ht="14.35" x14ac:dyDescent="0.5">
       <c r="A119" s="15"/>
       <c r="B119" s="57" t="s">
         <v>281</v>
@@ -7526,7 +8621,7 @@
       <c r="I119" s="14"/>
       <c r="J119" s="14"/>
     </row>
-    <row r="120" spans="1:10" s="9" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:10" s="9" customFormat="1" ht="14.35" x14ac:dyDescent="0.5">
       <c r="A120" s="15"/>
       <c r="B120" s="57" t="s">
         <v>282</v>
@@ -7546,7 +8641,7 @@
       <c r="I120" s="14"/>
       <c r="J120" s="14"/>
     </row>
-    <row r="121" spans="1:10" s="9" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:10" s="9" customFormat="1" ht="14.35" x14ac:dyDescent="0.5">
       <c r="A121" s="15"/>
       <c r="B121" s="57" t="s">
         <v>283</v>
@@ -7566,7 +8661,7 @@
       <c r="I121" s="14"/>
       <c r="J121" s="14"/>
     </row>
-    <row r="122" spans="1:10" s="9" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:10" s="9" customFormat="1" ht="14.35" x14ac:dyDescent="0.5">
       <c r="A122" s="15"/>
       <c r="B122" s="57" t="s">
         <v>284</v>
@@ -7586,7 +8681,7 @@
       <c r="I122" s="14"/>
       <c r="J122" s="14"/>
     </row>
-    <row r="123" spans="1:10" s="9" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:10" s="9" customFormat="1" ht="14.35" x14ac:dyDescent="0.5">
       <c r="A123" s="15"/>
       <c r="B123" s="57" t="s">
         <v>285</v>
@@ -7606,7 +8701,7 @@
       <c r="I123" s="14"/>
       <c r="J123" s="14"/>
     </row>
-    <row r="124" spans="1:10" s="9" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:10" s="9" customFormat="1" ht="14.35" x14ac:dyDescent="0.5">
       <c r="A124" s="15"/>
       <c r="B124" s="57" t="s">
         <v>286</v>
@@ -7626,7 +8721,7 @@
       <c r="I124" s="14"/>
       <c r="J124" s="14"/>
     </row>
-    <row r="125" spans="1:10" s="9" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:10" s="9" customFormat="1" ht="14.35" x14ac:dyDescent="0.5">
       <c r="A125" s="15"/>
       <c r="B125" s="57" t="s">
         <v>287</v>
@@ -7646,7 +8741,7 @@
       <c r="I125" s="14"/>
       <c r="J125" s="14"/>
     </row>
-    <row r="126" spans="1:10" s="9" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:10" s="9" customFormat="1" ht="14.35" x14ac:dyDescent="0.5">
       <c r="A126" s="15"/>
       <c r="B126" s="56" t="s">
         <v>288</v>
@@ -7666,7 +8761,7 @@
       <c r="I126" s="14"/>
       <c r="J126" s="14"/>
     </row>
-    <row r="127" spans="1:10" s="9" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:10" s="9" customFormat="1" ht="14.35" x14ac:dyDescent="0.5">
       <c r="A127" s="15"/>
       <c r="B127" s="56" t="s">
         <v>289</v>
@@ -7690,7 +8785,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="128" spans="1:10" s="9" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:10" s="9" customFormat="1" ht="14.35" x14ac:dyDescent="0.5">
       <c r="A128" s="15"/>
       <c r="B128" s="57" t="s">
         <v>4</v>
@@ -7710,7 +8805,7 @@
       <c r="I128" s="14"/>
       <c r="J128" s="14"/>
     </row>
-    <row r="129" spans="1:11" s="39" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:11" s="39" customFormat="1" ht="14.35" x14ac:dyDescent="0.5">
       <c r="A129" s="38" t="s">
         <v>291</v>
       </c>
@@ -7723,7 +8818,7 @@
       <c r="I129" s="41"/>
       <c r="J129" s="41"/>
     </row>
-    <row r="130" spans="1:11" s="9" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:11" s="9" customFormat="1" ht="14.35" x14ac:dyDescent="0.5">
       <c r="A130" s="15"/>
       <c r="B130" s="8" t="s">
         <v>581</v>
@@ -7743,7 +8838,7 @@
       <c r="I130" s="14"/>
       <c r="J130" s="14"/>
     </row>
-    <row r="131" spans="1:11" s="9" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:11" s="9" customFormat="1" ht="14.35" x14ac:dyDescent="0.5">
       <c r="A131" s="15"/>
       <c r="B131" s="8" t="s">
         <v>582</v>
@@ -7764,7 +8859,7 @@
       <c r="J131" s="8"/>
       <c r="K131" s="12"/>
     </row>
-    <row r="132" spans="1:11" s="9" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:11" s="9" customFormat="1" ht="14.35" x14ac:dyDescent="0.5">
       <c r="A132" s="15"/>
       <c r="B132" s="8" t="s">
         <v>292</v>
@@ -7784,7 +8879,7 @@
       <c r="I132" s="14"/>
       <c r="J132" s="14"/>
     </row>
-    <row r="133" spans="1:11" s="33" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:11" s="33" customFormat="1" ht="14.35" x14ac:dyDescent="0.5">
       <c r="A133" s="31"/>
       <c r="B133" s="31" t="s">
         <v>295</v>
@@ -7804,7 +8899,7 @@
       <c r="I133" s="32"/>
       <c r="J133" s="32"/>
     </row>
-    <row r="134" spans="1:11" s="50" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:11" s="50" customFormat="1" ht="14.35" x14ac:dyDescent="0.5">
       <c r="A134" s="49"/>
       <c r="B134" s="49" t="s">
         <v>295</v>
@@ -7824,7 +8919,7 @@
       <c r="I134" s="47"/>
       <c r="J134" s="47"/>
     </row>
-    <row r="135" spans="1:11" s="9" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:11" s="9" customFormat="1" ht="14.35" x14ac:dyDescent="0.5">
       <c r="A135" s="16"/>
       <c r="B135" s="15" t="s">
         <v>583</v>
@@ -7844,7 +8939,7 @@
       <c r="I135" s="14"/>
       <c r="J135" s="14"/>
     </row>
-    <row r="136" spans="1:11" s="39" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:11" s="39" customFormat="1" ht="14.35" x14ac:dyDescent="0.5">
       <c r="A136" s="38" t="s">
         <v>324</v>
       </c>
@@ -7857,7 +8952,7 @@
       <c r="I136" s="41"/>
       <c r="J136" s="41"/>
     </row>
-    <row r="137" spans="1:11" s="9" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:11" s="9" customFormat="1" ht="14.35" x14ac:dyDescent="0.5">
       <c r="A137" s="16"/>
       <c r="B137" s="8" t="s">
         <v>299</v>
@@ -7877,7 +8972,7 @@
       <c r="I137" s="14"/>
       <c r="J137" s="14"/>
     </row>
-    <row r="138" spans="1:11" s="9" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:11" s="9" customFormat="1" ht="14.35" x14ac:dyDescent="0.5">
       <c r="A138" s="16"/>
       <c r="B138" s="8" t="s">
         <v>300</v>
@@ -7897,7 +8992,7 @@
       <c r="I138" s="14"/>
       <c r="J138" s="14"/>
     </row>
-    <row r="139" spans="1:11" s="9" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:11" s="9" customFormat="1" ht="14.35" x14ac:dyDescent="0.5">
       <c r="A139" s="16"/>
       <c r="B139" s="8" t="s">
         <v>301</v>
@@ -7917,7 +9012,7 @@
       <c r="I139" s="14"/>
       <c r="J139" s="14"/>
     </row>
-    <row r="140" spans="1:11" s="9" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:11" s="9" customFormat="1" ht="14.35" x14ac:dyDescent="0.5">
       <c r="A140" s="16"/>
       <c r="B140" s="15" t="s">
         <v>305</v>
@@ -7937,7 +9032,7 @@
       <c r="I140" s="14"/>
       <c r="J140" s="14"/>
     </row>
-    <row r="141" spans="1:11" s="9" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:11" s="9" customFormat="1" ht="14.35" x14ac:dyDescent="0.5">
       <c r="A141" s="16"/>
       <c r="B141" s="8" t="s">
         <v>306</v>
@@ -7957,7 +9052,7 @@
       <c r="I141" s="14"/>
       <c r="J141" s="14"/>
     </row>
-    <row r="142" spans="1:11" s="9" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:11" s="9" customFormat="1" ht="14.35" x14ac:dyDescent="0.5">
       <c r="A142" s="16"/>
       <c r="B142" s="8" t="s">
         <v>307</v>
@@ -7977,7 +9072,7 @@
       <c r="I142" s="14"/>
       <c r="J142" s="14"/>
     </row>
-    <row r="143" spans="1:11" s="9" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:11" s="9" customFormat="1" ht="14.35" x14ac:dyDescent="0.5">
       <c r="A143" s="16"/>
       <c r="B143" s="8" t="s">
         <v>308</v>
@@ -7997,7 +9092,7 @@
       <c r="I143" s="14"/>
       <c r="J143" s="14"/>
     </row>
-    <row r="144" spans="1:11" s="9" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:11" s="9" customFormat="1" ht="14.35" x14ac:dyDescent="0.5">
       <c r="A144" s="16"/>
       <c r="B144" s="58" t="s">
         <v>322</v>
@@ -8017,7 +9112,7 @@
       <c r="I144" s="14"/>
       <c r="J144" s="14"/>
     </row>
-    <row r="145" spans="1:16384" s="9" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:16384" s="9" customFormat="1" ht="14.35" x14ac:dyDescent="0.5">
       <c r="A145" s="8"/>
       <c r="B145" s="8" t="s">
         <v>459</v>
@@ -24411,7 +25506,7 @@
       <c r="XFC145" s="8"/>
       <c r="XFD145" s="8"/>
     </row>
-    <row r="146" spans="1:16384" s="9" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:16384" s="9" customFormat="1" ht="14.35" x14ac:dyDescent="0.5">
       <c r="A146" s="8"/>
       <c r="B146" s="8" t="s">
         <v>460</v>
@@ -40805,7 +41900,7 @@
       <c r="XFC146" s="8"/>
       <c r="XFD146" s="8"/>
     </row>
-    <row r="147" spans="1:16384" s="9" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:16384" s="9" customFormat="1" ht="14.35" x14ac:dyDescent="0.5">
       <c r="A147" s="8"/>
       <c r="B147" s="8" t="s">
         <v>465</v>
@@ -57199,7 +58294,7 @@
       <c r="XFC147" s="8"/>
       <c r="XFD147" s="8"/>
     </row>
-    <row r="148" spans="1:16384" s="9" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:16384" s="9" customFormat="1" ht="14.35" x14ac:dyDescent="0.5">
       <c r="A148" s="16"/>
       <c r="B148" s="59" t="s">
         <v>323</v>
@@ -57219,7 +58314,7 @@
       <c r="I148" s="14"/>
       <c r="J148" s="14"/>
     </row>
-    <row r="149" spans="1:16384" s="9" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:16384" s="9" customFormat="1" ht="14.35" x14ac:dyDescent="0.5">
       <c r="A149" s="16"/>
       <c r="B149" s="60" t="s">
         <v>325</v>
@@ -57239,7 +58334,7 @@
       <c r="I149" s="14"/>
       <c r="J149" s="14"/>
     </row>
-    <row r="150" spans="1:16384" s="9" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:16384" s="9" customFormat="1" ht="14.35" x14ac:dyDescent="0.5">
       <c r="A150" s="16"/>
       <c r="B150" s="61" t="s">
         <v>326</v>
@@ -57259,7 +58354,7 @@
       <c r="I150" s="14"/>
       <c r="J150" s="14"/>
     </row>
-    <row r="151" spans="1:16384" s="9" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:16384" s="9" customFormat="1" ht="14.35" x14ac:dyDescent="0.5">
       <c r="A151" s="16"/>
       <c r="B151" s="63" t="s">
         <v>327</v>
@@ -57279,7 +58374,7 @@
       <c r="I151" s="14"/>
       <c r="J151" s="14"/>
     </row>
-    <row r="152" spans="1:16384" s="9" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:16384" s="9" customFormat="1" ht="14.35" x14ac:dyDescent="0.5">
       <c r="A152" s="16"/>
       <c r="B152" s="63" t="s">
         <v>328</v>
@@ -57299,7 +58394,7 @@
       <c r="I152" s="14"/>
       <c r="J152" s="14"/>
     </row>
-    <row r="153" spans="1:16384" s="9" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:16384" s="9" customFormat="1" ht="14.35" x14ac:dyDescent="0.5">
       <c r="A153" s="16"/>
       <c r="B153" s="63" t="s">
         <v>329</v>
@@ -57319,7 +58414,7 @@
       <c r="I153" s="14"/>
       <c r="J153" s="14"/>
     </row>
-    <row r="154" spans="1:16384" s="9" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:16384" s="9" customFormat="1" ht="14.35" x14ac:dyDescent="0.5">
       <c r="A154" s="16"/>
       <c r="B154" s="63" t="s">
         <v>330</v>
@@ -57339,7 +58434,7 @@
       <c r="I154" s="14"/>
       <c r="J154" s="14"/>
     </row>
-    <row r="155" spans="1:16384" s="9" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:16384" s="9" customFormat="1" ht="14.35" x14ac:dyDescent="0.5">
       <c r="A155" s="16"/>
       <c r="B155" s="63" t="s">
         <v>331</v>
@@ -57359,7 +58454,7 @@
       <c r="I155" s="14"/>
       <c r="J155" s="14"/>
     </row>
-    <row r="156" spans="1:16384" s="9" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:16384" s="9" customFormat="1" ht="14.35" x14ac:dyDescent="0.5">
       <c r="A156" s="16"/>
       <c r="B156" s="63" t="s">
         <v>332</v>
@@ -57379,7 +58474,7 @@
       <c r="I156" s="14"/>
       <c r="J156" s="14"/>
     </row>
-    <row r="157" spans="1:16384" s="9" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:16384" s="9" customFormat="1" ht="14.35" x14ac:dyDescent="0.5">
       <c r="A157" s="16"/>
       <c r="B157" s="63" t="s">
         <v>333</v>
@@ -57399,7 +58494,7 @@
       <c r="I157" s="14"/>
       <c r="J157" s="14"/>
     </row>
-    <row r="158" spans="1:16384" s="9" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:16384" s="9" customFormat="1" ht="14.35" x14ac:dyDescent="0.5">
       <c r="A158" s="16"/>
       <c r="B158" s="63" t="s">
         <v>334</v>
@@ -57419,7 +58514,7 @@
       <c r="I158" s="14"/>
       <c r="J158" s="14"/>
     </row>
-    <row r="159" spans="1:16384" s="9" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:16384" s="9" customFormat="1" ht="14.35" x14ac:dyDescent="0.5">
       <c r="A159" s="16"/>
       <c r="B159" s="62" t="s">
         <v>335</v>
@@ -57439,7 +58534,7 @@
       <c r="I159" s="14"/>
       <c r="J159" s="14"/>
     </row>
-    <row r="160" spans="1:16384" s="9" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:16384" s="9" customFormat="1" ht="14.35" x14ac:dyDescent="0.5">
       <c r="A160" s="16"/>
       <c r="B160" s="62" t="s">
         <v>336</v>
@@ -57459,7 +58554,7 @@
       <c r="I160" s="14"/>
       <c r="J160" s="14"/>
     </row>
-    <row r="161" spans="1:10" s="9" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:10" s="9" customFormat="1" ht="14.35" x14ac:dyDescent="0.5">
       <c r="A161" s="16"/>
       <c r="B161" s="63" t="s">
         <v>337</v>
@@ -57479,7 +58574,7 @@
       <c r="I161" s="14"/>
       <c r="J161" s="14"/>
     </row>
-    <row r="162" spans="1:10" s="9" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:10" s="9" customFormat="1" ht="14.35" x14ac:dyDescent="0.5">
       <c r="A162" s="16"/>
       <c r="B162" s="63" t="s">
         <v>338</v>
@@ -57499,7 +58594,7 @@
       <c r="I162" s="14"/>
       <c r="J162" s="14"/>
     </row>
-    <row r="163" spans="1:10" s="13" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:10" s="13" customFormat="1" ht="14.35" x14ac:dyDescent="0.5">
       <c r="A163" s="16"/>
       <c r="B163" s="63" t="s">
         <v>339</v>
@@ -57519,7 +58614,7 @@
       <c r="I163" s="18"/>
       <c r="J163" s="18"/>
     </row>
-    <row r="164" spans="1:10" s="9" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:10" s="9" customFormat="1" ht="14.35" x14ac:dyDescent="0.5">
       <c r="A164" s="13"/>
       <c r="B164" s="63" t="s">
         <v>340</v>
@@ -57539,7 +58634,7 @@
       <c r="I164" s="10"/>
       <c r="J164" s="10"/>
     </row>
-    <row r="165" spans="1:10" s="9" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:10" s="9" customFormat="1" ht="14.35" x14ac:dyDescent="0.5">
       <c r="A165" s="12"/>
       <c r="B165" s="63" t="s">
         <v>341</v>
@@ -57559,7 +58654,7 @@
       <c r="I165" s="10"/>
       <c r="J165" s="10"/>
     </row>
-    <row r="166" spans="1:10" s="9" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:10" s="9" customFormat="1" ht="14.35" x14ac:dyDescent="0.5">
       <c r="A166" s="12"/>
       <c r="B166" s="64" t="s">
         <v>342</v>
@@ -57579,7 +58674,7 @@
       <c r="I166" s="10"/>
       <c r="J166" s="10"/>
     </row>
-    <row r="167" spans="1:10" ht="15" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:10" ht="14.35" x14ac:dyDescent="0.5">
       <c r="A167" s="12"/>
       <c r="B167" s="65" t="s">
         <v>343</v>
@@ -57597,7 +58692,7 @@
       <c r="G167" s="11"/>
       <c r="H167" s="11"/>
     </row>
-    <row r="168" spans="1:10" ht="15" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:10" ht="14.35" x14ac:dyDescent="0.5">
       <c r="A168" s="25"/>
       <c r="B168" s="65" t="s">
         <v>344</v>
@@ -57615,7 +58710,7 @@
       <c r="G168" s="27"/>
       <c r="H168" s="27"/>
     </row>
-    <row r="169" spans="1:10" ht="15" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:10" ht="14.35" x14ac:dyDescent="0.5">
       <c r="A169" s="13"/>
       <c r="B169" s="65" t="s">
         <v>345</v>
@@ -57633,7 +58728,7 @@
       <c r="G169" s="13"/>
       <c r="H169" s="13"/>
     </row>
-    <row r="170" spans="1:10" ht="15" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:10" ht="14.35" x14ac:dyDescent="0.5">
       <c r="A170" s="25"/>
       <c r="B170" s="65" t="s">
         <v>346</v>
@@ -57651,7 +58746,7 @@
       <c r="G170" s="27"/>
       <c r="H170" s="27"/>
     </row>
-    <row r="171" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="171" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A171" s="25"/>
       <c r="B171" s="65" t="s">
         <v>347</v>
@@ -57669,7 +58764,7 @@
       <c r="G171" s="26"/>
       <c r="H171" s="25"/>
     </row>
-    <row r="172" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="172" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A172" s="25"/>
       <c r="B172" s="65" t="s">
         <v>348</v>
@@ -57687,7 +58782,7 @@
       <c r="G172" s="26"/>
       <c r="H172" s="25"/>
     </row>
-    <row r="173" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="173" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A173" s="25"/>
       <c r="B173" s="65" t="s">
         <v>349</v>
@@ -57705,7 +58800,7 @@
       <c r="G173" s="26"/>
       <c r="H173" s="25"/>
     </row>
-    <row r="174" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="174" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A174" s="25"/>
       <c r="B174" s="66" t="s">
         <v>350</v>
@@ -57723,7 +58818,7 @@
       <c r="G174" s="26"/>
       <c r="H174" s="25"/>
     </row>
-    <row r="175" spans="1:10" s="39" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:10" s="39" customFormat="1" ht="14.35" x14ac:dyDescent="0.5">
       <c r="A175" s="38" t="s">
         <v>351</v>
       </c>
@@ -57736,7 +58831,7 @@
       <c r="I175" s="41"/>
       <c r="J175" s="41"/>
     </row>
-    <row r="176" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="176" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A176" s="25"/>
       <c r="B176" s="67" t="s">
         <v>356</v>
@@ -57754,7 +58849,7 @@
       <c r="G176" s="26"/>
       <c r="H176" s="25"/>
     </row>
-    <row r="177" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="177" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A177" s="25"/>
       <c r="B177" s="67" t="s">
         <v>352</v>
@@ -57772,7 +58867,7 @@
       <c r="G177" s="26"/>
       <c r="H177" s="25"/>
     </row>
-    <row r="178" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="178" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A178" s="25"/>
       <c r="B178" s="67" t="s">
         <v>353</v>
@@ -57790,7 +58885,7 @@
       <c r="G178" s="26"/>
       <c r="H178" s="25"/>
     </row>
-    <row r="179" spans="1:10" s="71" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:10" s="71" customFormat="1" ht="14.35" x14ac:dyDescent="0.5">
       <c r="A179" s="69"/>
       <c r="B179" s="70" t="s">
         <v>354</v>
@@ -57808,7 +58903,7 @@
       <c r="I179" s="69"/>
       <c r="J179" s="69"/>
     </row>
-    <row r="180" spans="1:10" s="71" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:10" s="71" customFormat="1" ht="14.35" x14ac:dyDescent="0.5">
       <c r="A180" s="69"/>
       <c r="B180" s="68" t="s">
         <v>355</v>
@@ -57826,7 +58921,7 @@
       <c r="I180" s="69"/>
       <c r="J180" s="69"/>
     </row>
-    <row r="181" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="181" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A181" s="25"/>
       <c r="B181" s="67" t="s">
         <v>358</v>
@@ -57844,7 +58939,7 @@
       <c r="G181" s="26"/>
       <c r="H181" s="25"/>
     </row>
-    <row r="182" spans="1:10" s="76" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:10" s="76" customFormat="1" ht="14.35" x14ac:dyDescent="0.5">
       <c r="A182" s="74"/>
       <c r="B182" s="75" t="s">
         <v>357</v>
@@ -57862,7 +58957,7 @@
       <c r="I182" s="74"/>
       <c r="J182" s="74"/>
     </row>
-    <row r="183" spans="1:10" ht="15" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:10" ht="14.35" x14ac:dyDescent="0.5">
       <c r="A183" s="25"/>
       <c r="B183" s="67" t="s">
         <v>361</v>
@@ -57880,7 +58975,7 @@
       <c r="G183" s="26"/>
       <c r="H183" s="25"/>
     </row>
-    <row r="184" spans="1:10" s="39" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:10" s="39" customFormat="1" ht="14.35" x14ac:dyDescent="0.5">
       <c r="A184" s="38" t="s">
         <v>364</v>
       </c>
@@ -57893,7 +58988,7 @@
       <c r="I184" s="41"/>
       <c r="J184" s="41"/>
     </row>
-    <row r="185" spans="1:10" s="76" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:10" s="76" customFormat="1" ht="14.35" x14ac:dyDescent="0.5">
       <c r="A185" s="74"/>
       <c r="B185" s="79" t="s">
         <v>379</v>
@@ -57911,7 +59006,7 @@
       <c r="I185" s="74"/>
       <c r="J185" s="74"/>
     </row>
-    <row r="186" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="186" spans="1:10" x14ac:dyDescent="0.45">
       <c r="B186" s="80" t="s">
         <v>365</v>
       </c>
@@ -57925,7 +59020,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="187" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="187" spans="1:10" x14ac:dyDescent="0.45">
       <c r="B187" s="8" t="s">
         <v>366</v>
       </c>
@@ -57939,7 +59034,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="188" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="188" spans="1:10" x14ac:dyDescent="0.45">
       <c r="B188" s="1" t="s">
         <v>367</v>
       </c>
@@ -57953,7 +59048,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="189" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="189" spans="1:10" x14ac:dyDescent="0.45">
       <c r="B189" s="1" t="s">
         <v>368</v>
       </c>
@@ -57967,7 +59062,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="190" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="190" spans="1:10" x14ac:dyDescent="0.45">
       <c r="B190" s="1" t="s">
         <v>369</v>
       </c>
@@ -57981,7 +59076,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="191" spans="1:10" s="76" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:10" s="76" customFormat="1" ht="14.35" x14ac:dyDescent="0.5">
       <c r="A191" s="74"/>
       <c r="B191" s="76" t="s">
         <v>370</v>
@@ -57999,7 +59094,7 @@
       <c r="I191" s="74"/>
       <c r="J191" s="74"/>
     </row>
-    <row r="192" spans="1:10" s="76" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:10" s="76" customFormat="1" ht="14.35" x14ac:dyDescent="0.5">
       <c r="A192" s="74"/>
       <c r="B192" s="76" t="s">
         <v>371</v>
@@ -58017,7 +59112,7 @@
       <c r="I192" s="74"/>
       <c r="J192" s="74"/>
     </row>
-    <row r="193" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="193" spans="1:10" x14ac:dyDescent="0.45">
       <c r="B193" s="1" t="s">
         <v>372</v>
       </c>
@@ -58031,7 +59126,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="194" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="194" spans="1:10" x14ac:dyDescent="0.45">
       <c r="B194" s="1" t="s">
         <v>373</v>
       </c>
@@ -58045,7 +59140,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="195" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="195" spans="1:10" x14ac:dyDescent="0.45">
       <c r="B195" s="1" t="s">
         <v>374</v>
       </c>
@@ -58059,7 +59154,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="196" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="196" spans="1:10" x14ac:dyDescent="0.45">
       <c r="B196" s="1" t="s">
         <v>375</v>
       </c>
@@ -58073,7 +59168,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="197" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="197" spans="1:10" x14ac:dyDescent="0.45">
       <c r="B197" s="1" t="s">
         <v>376</v>
       </c>
@@ -58087,7 +59182,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="198" spans="1:10" s="71" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="198" spans="1:10" s="71" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A198" s="69"/>
       <c r="B198" s="81" t="s">
         <v>377</v>
@@ -58105,7 +59200,7 @@
       <c r="I198" s="69"/>
       <c r="J198" s="69"/>
     </row>
-    <row r="199" spans="1:10" s="71" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="199" spans="1:10" s="71" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A199" s="69"/>
       <c r="B199" s="81" t="s">
         <v>378</v>
@@ -58123,7 +59218,7 @@
       <c r="I199" s="69"/>
       <c r="J199" s="69"/>
     </row>
-    <row r="200" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="200" spans="1:10" x14ac:dyDescent="0.45">
       <c r="B200" s="8" t="s">
         <v>382</v>
       </c>
@@ -58137,7 +59232,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="201" spans="1:10" s="39" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:10" s="39" customFormat="1" ht="14.35" x14ac:dyDescent="0.5">
       <c r="A201" s="38" t="s">
         <v>385</v>
       </c>
@@ -58150,7 +59245,7 @@
       <c r="I201" s="41"/>
       <c r="J201" s="41"/>
     </row>
-    <row r="202" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="202" spans="1:10" x14ac:dyDescent="0.45">
       <c r="B202" s="82" t="s">
         <v>386</v>
       </c>
@@ -58164,7 +59259,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="203" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="203" spans="1:10" x14ac:dyDescent="0.45">
       <c r="B203" s="82" t="s">
         <v>387</v>
       </c>
@@ -58178,7 +59273,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="204" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="204" spans="1:10" x14ac:dyDescent="0.45">
       <c r="B204" s="82" t="s">
         <v>388</v>
       </c>
@@ -58192,7 +59287,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="205" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="205" spans="1:10" x14ac:dyDescent="0.45">
       <c r="B205" s="82" t="s">
         <v>389</v>
       </c>
@@ -58206,7 +59301,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="206" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="206" spans="1:10" x14ac:dyDescent="0.45">
       <c r="B206" s="82" t="s">
         <v>390</v>
       </c>
@@ -58220,7 +59315,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="207" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="207" spans="1:10" x14ac:dyDescent="0.45">
       <c r="B207" s="82" t="s">
         <v>391</v>
       </c>
@@ -58234,7 +59329,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="208" spans="1:10" s="76" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="208" spans="1:10" s="76" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A208" s="74"/>
       <c r="B208" s="79" t="s">
         <v>453</v>
@@ -58252,7 +59347,7 @@
       <c r="I208" s="74"/>
       <c r="J208" s="74"/>
     </row>
-    <row r="209" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="209" spans="2:6" x14ac:dyDescent="0.45">
       <c r="B209" s="83" t="s">
         <v>392</v>
       </c>
@@ -58266,7 +59361,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="210" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="210" spans="2:6" x14ac:dyDescent="0.45">
       <c r="B210" s="83" t="s">
         <v>393</v>
       </c>
@@ -58280,7 +59375,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="211" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="211" spans="2:6" x14ac:dyDescent="0.45">
       <c r="B211" s="83" t="s">
         <v>394</v>
       </c>
@@ -58294,7 +59389,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="212" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="212" spans="2:6" x14ac:dyDescent="0.45">
       <c r="B212" s="83" t="s">
         <v>395</v>
       </c>
@@ -58308,7 +59403,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="213" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="213" spans="2:6" x14ac:dyDescent="0.45">
       <c r="B213" s="83" t="s">
         <v>396</v>
       </c>
@@ -58322,7 +59417,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="214" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="214" spans="2:6" x14ac:dyDescent="0.45">
       <c r="B214" s="83" t="s">
         <v>397</v>
       </c>
@@ -58336,7 +59431,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="215" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="215" spans="2:6" x14ac:dyDescent="0.45">
       <c r="B215" s="83" t="s">
         <v>398</v>
       </c>
@@ -58350,7 +59445,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="216" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="216" spans="2:6" x14ac:dyDescent="0.45">
       <c r="B216" s="83" t="s">
         <v>399</v>
       </c>
@@ -58364,7 +59459,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="217" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="217" spans="2:6" x14ac:dyDescent="0.45">
       <c r="B217" s="83" t="s">
         <v>400</v>
       </c>
@@ -58378,7 +59473,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="218" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="218" spans="2:6" x14ac:dyDescent="0.45">
       <c r="B218" s="83" t="s">
         <v>401</v>
       </c>
@@ -58392,7 +59487,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="219" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="219" spans="2:6" x14ac:dyDescent="0.45">
       <c r="B219" s="83" t="s">
         <v>402</v>
       </c>
@@ -58406,7 +59501,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="220" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="220" spans="2:6" x14ac:dyDescent="0.45">
       <c r="B220" s="84" t="s">
         <v>403</v>
       </c>
@@ -58420,7 +59515,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="221" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="221" spans="2:6" x14ac:dyDescent="0.45">
       <c r="B221" s="84" t="s">
         <v>404</v>
       </c>
@@ -58434,7 +59529,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="222" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="222" spans="2:6" x14ac:dyDescent="0.45">
       <c r="B222" s="84" t="s">
         <v>405</v>
       </c>
@@ -58448,7 +59543,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="223" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="223" spans="2:6" x14ac:dyDescent="0.45">
       <c r="B223" s="84" t="s">
         <v>406</v>
       </c>
@@ -58462,7 +59557,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="224" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="224" spans="2:6" x14ac:dyDescent="0.45">
       <c r="B224" s="86" t="s">
         <v>407</v>
       </c>
@@ -58476,7 +59571,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="225" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="225" spans="2:6" x14ac:dyDescent="0.45">
       <c r="B225" s="86" t="s">
         <v>408</v>
       </c>
@@ -58490,7 +59585,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="226" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="226" spans="2:6" x14ac:dyDescent="0.45">
       <c r="B226" s="86" t="s">
         <v>409</v>
       </c>
@@ -58504,7 +59599,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="227" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="227" spans="2:6" x14ac:dyDescent="0.45">
       <c r="B227" s="86" t="s">
         <v>410</v>
       </c>
@@ -58518,7 +59613,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="228" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="228" spans="2:6" x14ac:dyDescent="0.45">
       <c r="B228" s="86" t="s">
         <v>411</v>
       </c>
@@ -58532,7 +59627,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="229" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="229" spans="2:6" x14ac:dyDescent="0.45">
       <c r="B229" s="86" t="s">
         <v>412</v>
       </c>
@@ -58546,7 +59641,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="230" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="230" spans="2:6" x14ac:dyDescent="0.45">
       <c r="B230" s="86" t="s">
         <v>413</v>
       </c>
@@ -58560,7 +59655,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="231" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="231" spans="2:6" x14ac:dyDescent="0.45">
       <c r="B231" s="86" t="s">
         <v>414</v>
       </c>
@@ -58574,7 +59669,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="232" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="232" spans="2:6" x14ac:dyDescent="0.45">
       <c r="B232" s="86" t="s">
         <v>415</v>
       </c>
@@ -58588,7 +59683,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="233" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="233" spans="2:6" x14ac:dyDescent="0.45">
       <c r="B233" s="86" t="s">
         <v>416</v>
       </c>
@@ -58602,7 +59697,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="234" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="234" spans="2:6" x14ac:dyDescent="0.45">
       <c r="B234" s="86" t="s">
         <v>417</v>
       </c>
@@ -58616,7 +59711,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="235" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="235" spans="2:6" x14ac:dyDescent="0.45">
       <c r="B235" s="86" t="s">
         <v>418</v>
       </c>
@@ -58630,7 +59725,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="236" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="236" spans="2:6" x14ac:dyDescent="0.45">
       <c r="B236" s="86" t="s">
         <v>419</v>
       </c>
@@ -58644,7 +59739,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="237" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="237" spans="2:6" x14ac:dyDescent="0.45">
       <c r="B237" s="86" t="s">
         <v>420</v>
       </c>
@@ -58658,7 +59753,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="238" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="238" spans="2:6" x14ac:dyDescent="0.45">
       <c r="B238" s="86" t="s">
         <v>421</v>
       </c>
@@ -58672,7 +59767,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="239" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="239" spans="2:6" x14ac:dyDescent="0.45">
       <c r="B239" s="86" t="s">
         <v>422</v>
       </c>
@@ -58686,7 +59781,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="240" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="240" spans="2:6" x14ac:dyDescent="0.45">
       <c r="B240" s="86" t="s">
         <v>423</v>
       </c>
@@ -58700,7 +59795,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="241" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="241" spans="2:6" x14ac:dyDescent="0.45">
       <c r="B241" s="85" t="s">
         <v>424</v>
       </c>
@@ -58714,7 +59809,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="242" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="242" spans="2:6" x14ac:dyDescent="0.45">
       <c r="B242" s="85" t="s">
         <v>425</v>
       </c>
@@ -58728,7 +59823,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="243" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="243" spans="2:6" x14ac:dyDescent="0.45">
       <c r="B243" s="85" t="s">
         <v>426</v>
       </c>
@@ -58742,7 +59837,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="244" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="244" spans="2:6" x14ac:dyDescent="0.45">
       <c r="B244" s="85" t="s">
         <v>427</v>
       </c>
@@ -58756,7 +59851,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="245" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="245" spans="2:6" x14ac:dyDescent="0.45">
       <c r="B245" s="85" t="s">
         <v>428</v>
       </c>
@@ -58770,7 +59865,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="246" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="246" spans="2:6" x14ac:dyDescent="0.45">
       <c r="B246" s="87" t="s">
         <v>429</v>
       </c>
@@ -58784,7 +59879,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="247" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="247" spans="2:6" x14ac:dyDescent="0.45">
       <c r="B247" s="88" t="s">
         <v>430</v>
       </c>
@@ -58798,7 +59893,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="248" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="248" spans="2:6" x14ac:dyDescent="0.45">
       <c r="B248" s="88" t="s">
         <v>431</v>
       </c>
@@ -58812,7 +59907,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="249" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="249" spans="2:6" x14ac:dyDescent="0.45">
       <c r="B249" s="88" t="s">
         <v>432</v>
       </c>
@@ -58826,7 +59921,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="250" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="250" spans="2:6" x14ac:dyDescent="0.45">
       <c r="B250" s="88" t="s">
         <v>433</v>
       </c>
@@ -58840,7 +59935,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="251" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="251" spans="2:6" x14ac:dyDescent="0.45">
       <c r="B251" s="88" t="s">
         <v>434</v>
       </c>
@@ -58854,7 +59949,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="252" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="252" spans="2:6" x14ac:dyDescent="0.45">
       <c r="B252" s="88" t="s">
         <v>435</v>
       </c>
@@ -58868,7 +59963,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="253" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="253" spans="2:6" x14ac:dyDescent="0.45">
       <c r="B253" s="88" t="s">
         <v>436</v>
       </c>
@@ -58882,7 +59977,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="254" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="254" spans="2:6" x14ac:dyDescent="0.45">
       <c r="B254" s="88" t="s">
         <v>437</v>
       </c>
@@ -58896,7 +59991,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="255" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="255" spans="2:6" x14ac:dyDescent="0.45">
       <c r="B255" s="88" t="s">
         <v>438</v>
       </c>
@@ -58910,7 +60005,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="256" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="256" spans="2:6" x14ac:dyDescent="0.45">
       <c r="B256" s="88" t="s">
         <v>439</v>
       </c>
@@ -58924,7 +60019,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="257" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="257" spans="2:7" x14ac:dyDescent="0.45">
       <c r="B257" s="88" t="s">
         <v>440</v>
       </c>
@@ -58938,7 +60033,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="258" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="258" spans="2:7" x14ac:dyDescent="0.45">
       <c r="B258" s="88" t="s">
         <v>441</v>
       </c>
@@ -58952,7 +60047,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="259" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="259" spans="2:7" x14ac:dyDescent="0.45">
       <c r="B259" s="88" t="s">
         <v>442</v>
       </c>
@@ -58966,7 +60061,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="260" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="260" spans="2:7" x14ac:dyDescent="0.45">
       <c r="B260" s="88" t="s">
         <v>443</v>
       </c>
@@ -58980,7 +60075,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="261" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="261" spans="2:7" x14ac:dyDescent="0.45">
       <c r="B261" s="88" t="s">
         <v>444</v>
       </c>
@@ -58994,7 +60089,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="262" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="262" spans="2:7" x14ac:dyDescent="0.45">
       <c r="B262" s="88" t="s">
         <v>445</v>
       </c>
@@ -59008,7 +60103,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="263" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="263" spans="2:7" x14ac:dyDescent="0.45">
       <c r="B263" s="88" t="s">
         <v>446</v>
       </c>
@@ -59022,7 +60117,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="264" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="264" spans="2:7" x14ac:dyDescent="0.45">
       <c r="B264" s="88" t="s">
         <v>447</v>
       </c>
@@ -59036,7 +60131,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="265" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="265" spans="2:7" x14ac:dyDescent="0.45">
       <c r="B265" s="88" t="s">
         <v>448</v>
       </c>
@@ -59050,7 +60145,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="266" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="266" spans="2:7" x14ac:dyDescent="0.45">
       <c r="B266" s="88" t="s">
         <v>449</v>
       </c>
@@ -59064,7 +60159,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="267" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="267" spans="2:7" x14ac:dyDescent="0.45">
       <c r="B267" s="88" t="s">
         <v>450</v>
       </c>
@@ -59078,7 +60173,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="268" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="268" spans="2:7" x14ac:dyDescent="0.45">
       <c r="B268" s="89" t="s">
         <v>451</v>
       </c>
@@ -59092,7 +60187,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="269" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="269" spans="2:7" x14ac:dyDescent="0.45">
       <c r="B269" s="90" t="s">
         <v>452</v>
       </c>
@@ -59109,7 +60204,7 @@
         <v>458</v>
       </c>
     </row>
-    <row r="270" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="270" spans="2:7" x14ac:dyDescent="0.45">
       <c r="B270" s="92" t="s">
         <v>454</v>
       </c>
@@ -59123,7 +60218,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="271" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="271" spans="2:7" x14ac:dyDescent="0.45">
       <c r="B271" s="92" t="s">
         <v>455</v>
       </c>
@@ -59137,7 +60232,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="272" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="272" spans="2:7" x14ac:dyDescent="0.45">
       <c r="B272" s="92" t="s">
         <v>456</v>
       </c>
@@ -59151,7 +60246,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="273" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="273" spans="2:6" x14ac:dyDescent="0.45">
       <c r="B273" s="92" t="s">
         <v>457</v>
       </c>
@@ -59175,20 +60270,20 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:K23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="D24" sqref="D24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9.1171875" defaultRowHeight="13" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="16384" width="9.140625" style="8"/>
+    <col min="1" max="16384" width="9.1171875" style="8"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="36.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:11" ht="36.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A1" s="94" t="s">
         <v>29</v>
       </c>
@@ -59203,92 +60298,92 @@
       <c r="J1" s="94"/>
       <c r="K1" s="94"/>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A3" s="8" t="s">
         <v>467</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A5" s="8" t="s">
         <v>476</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A6" s="8" t="s">
         <v>477</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A7" s="8" t="s">
         <v>478</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A8" s="8" t="s">
         <v>479</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A9" s="8" t="s">
         <v>480</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A10" s="8" t="s">
         <v>481</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A11" s="8" t="s">
         <v>494</v>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A12" s="8" t="s">
         <v>482</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A13" s="8" t="s">
         <v>495</v>
       </c>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A14" s="8" t="s">
         <v>496</v>
       </c>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A15" s="8" t="s">
         <v>497</v>
       </c>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A17" s="91" t="s">
         <v>470</v>
       </c>
     </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A18" s="8" t="s">
         <v>471</v>
       </c>
     </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A19" s="8" t="s">
         <v>472</v>
       </c>
     </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A20" s="8" t="s">
         <v>473</v>
       </c>
     </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A21" s="8" t="s">
         <v>474</v>
       </c>
     </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A23" s="91" t="s">
         <v>475</v>
       </c>
